--- a/prog/asm_bench_global.xlsx
+++ b/prog/asm_bench_global.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gael\Documents\Phelma\Miniprojet_RISC_V\bench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gael\Documents\Phelma\Miniprojet_RISC_V\prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADF6B76-F3F0-4183-BA3D-9D11B4DB3D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09BF434-4199-4D7A-90EA-B110B37AF90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="21490" windowWidth="25820" windowHeight="16220" xr2:uid="{2CCC6636-DFC2-44F3-972F-BAEB4E90E7D9}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15540" xr2:uid="{2CCC6636-DFC2-44F3-972F-BAEB4E90E7D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <definedName name="VALUE9">Feuil1!$L$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -818,12 +819,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,26 +1141,26 @@
   <dimension ref="A1:M651"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B619" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D413" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C649" sqref="C649"/>
+      <selection pane="bottomRight" activeCell="I328" sqref="I328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.08984375" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.6328125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>194</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="I2" t="s">
@@ -1221,7 +1221,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>3</v>
@@ -1233,7 +1233,7 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I3" t="s">
@@ -1254,7 +1254,7 @@
         <v>0E</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>4</v>
@@ -1266,7 +1266,7 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="I4" t="s">
@@ -1287,7 +1287,7 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1299,7 +1299,7 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E5" t="s">
@@ -1323,7 +1323,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1335,7 +1335,7 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="1"/>
@@ -1357,7 +1357,7 @@
         <v>FFFE</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1369,7 +1369,7 @@
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I7" t="s">
@@ -1390,7 +1390,7 @@
         <v>000F</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1402,7 +1402,7 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I8" t="s">
@@ -1423,7 +1423,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1435,7 +1435,7 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I9" t="s">
@@ -1456,7 +1456,7 @@
         <v>FFFFFFFE</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1468,7 +1468,7 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>99</v>
       </c>
       <c r="I10" t="s">
@@ -1489,7 +1489,7 @@
         <v>0F0F0F0F</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1501,7 +1501,7 @@
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>100</v>
       </c>
       <c r="I11" t="s">
@@ -1522,7 +1522,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1534,11 +1534,11 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1550,11 +1550,11 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1566,11 +1566,11 @@
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1582,11 +1582,11 @@
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1598,11 +1598,11 @@
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1614,11 +1614,11 @@
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1630,11 +1630,11 @@
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1646,11 +1646,11 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1662,11 +1662,11 @@
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1678,14 +1678,14 @@
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1697,11 +1697,11 @@
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1713,14 +1713,14 @@
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1732,11 +1732,11 @@
       <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1748,11 +1748,11 @@
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1764,11 +1764,11 @@
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1780,11 +1780,11 @@
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1796,7 +1796,7 @@
       <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E28" t="s">
@@ -1814,11 +1814,11 @@
         <v>30</v>
       </c>
       <c r="I28" t="str">
-        <f>DEC2BIN(H28,8)</f>
-        <v>00011110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <f>DEC2HEX(H28,8)</f>
+        <v>0000001E</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1829,14 +1829,14 @@
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E29" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1848,11 +1848,11 @@
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1864,11 +1864,11 @@
       <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1880,7 +1880,7 @@
       <c r="C32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E32" t="s">
@@ -1902,7 +1902,7 @@
         <v>0F0F0F0D</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1914,11 +1914,11 @@
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1930,11 +1930,11 @@
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1946,11 +1946,11 @@
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1962,11 +1962,11 @@
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1978,11 +1978,11 @@
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1994,11 +1994,11 @@
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2010,11 +2010,11 @@
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2026,11 +2026,11 @@
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2042,11 +2042,11 @@
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2058,11 +2058,11 @@
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2074,11 +2074,11 @@
       <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2090,11 +2090,11 @@
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2106,11 +2106,11 @@
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2122,11 +2122,11 @@
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2138,11 +2138,11 @@
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2154,11 +2154,11 @@
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2170,11 +2170,11 @@
       <c r="C49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2186,14 +2186,14 @@
       <c r="C50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2205,11 +2205,11 @@
       <c r="C51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2221,11 +2221,11 @@
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2237,7 +2237,7 @@
       <c r="C53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E53" t="s">
@@ -2259,7 +2259,7 @@
         <v>0F0F0F0E</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2271,11 +2271,11 @@
       <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2287,11 +2287,11 @@
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2303,11 +2303,11 @@
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2319,11 +2319,11 @@
       <c r="C57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2335,11 +2335,11 @@
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2351,11 +2351,11 @@
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2367,11 +2367,11 @@
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2383,11 +2383,11 @@
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2399,11 +2399,11 @@
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2415,11 +2415,11 @@
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2431,11 +2431,11 @@
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2447,11 +2447,11 @@
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2463,11 +2463,11 @@
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -2479,11 +2479,11 @@
       <c r="C67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="6">A67+1</f>
         <v>69</v>
@@ -2495,11 +2495,11 @@
       <c r="C68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -2511,11 +2511,11 @@
       <c r="C69" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -2527,11 +2527,11 @@
       <c r="C70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -2543,14 +2543,14 @@
       <c r="C71" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E71" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -2562,11 +2562,11 @@
       <c r="C72" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -2578,11 +2578,11 @@
       <c r="C73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -2594,7 +2594,7 @@
       <c r="C74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E74" t="s">
@@ -2616,7 +2616,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -2628,11 +2628,11 @@
       <c r="C75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -2644,11 +2644,11 @@
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -2660,11 +2660,11 @@
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -2676,11 +2676,11 @@
       <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="6"/>
         <v>80</v>
@@ -2692,11 +2692,11 @@
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -2708,11 +2708,11 @@
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="6"/>
         <v>82</v>
@@ -2724,11 +2724,11 @@
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -2740,11 +2740,11 @@
       <c r="C82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -2756,11 +2756,11 @@
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -2772,11 +2772,11 @@
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -2788,11 +2788,11 @@
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -2804,11 +2804,11 @@
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -2820,11 +2820,11 @@
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -2836,11 +2836,11 @@
       <c r="C88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -2852,11 +2852,11 @@
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -2868,11 +2868,11 @@
       <c r="C90" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -2884,11 +2884,11 @@
       <c r="C91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="6"/>
         <v>93</v>
@@ -2900,14 +2900,14 @@
       <c r="C92" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E92" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="6"/>
         <v>94</v>
@@ -2919,11 +2919,11 @@
       <c r="C93" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="6"/>
         <v>95</v>
@@ -2935,11 +2935,11 @@
       <c r="C94" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="6"/>
         <v>96</v>
@@ -2951,7 +2951,7 @@
       <c r="C95" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E95" t="s">
@@ -2973,7 +2973,7 @@
         <v>0002</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>98</v>
       </c>
@@ -2984,11 +2984,11 @@
       <c r="C96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="6"/>
         <v>99</v>
@@ -3000,11 +3000,11 @@
       <c r="C97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -3016,11 +3016,11 @@
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -3032,11 +3032,11 @@
       <c r="C99" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="6"/>
         <v>102</v>
@@ -3048,11 +3048,11 @@
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="6"/>
         <v>103</v>
@@ -3064,11 +3064,11 @@
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="6"/>
         <v>104</v>
@@ -3080,11 +3080,11 @@
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="6"/>
         <v>105</v>
@@ -3096,11 +3096,11 @@
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="6"/>
         <v>106</v>
@@ -3112,11 +3112,11 @@
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="6"/>
         <v>107</v>
@@ -3128,11 +3128,11 @@
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="6"/>
         <v>108</v>
@@ -3144,11 +3144,11 @@
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="6"/>
         <v>109</v>
@@ -3160,11 +3160,11 @@
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="6"/>
         <v>110</v>
@@ -3176,11 +3176,11 @@
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="6"/>
         <v>111</v>
@@ -3192,11 +3192,11 @@
       <c r="C109" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="6"/>
         <v>112</v>
@@ -3208,11 +3208,11 @@
       <c r="C110" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="6"/>
         <v>113</v>
@@ -3224,11 +3224,11 @@
       <c r="C111" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="6"/>
         <v>114</v>
@@ -3240,11 +3240,11 @@
       <c r="C112" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="6"/>
         <v>115</v>
@@ -3256,14 +3256,14 @@
       <c r="C113" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E113" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="6"/>
         <v>116</v>
@@ -3275,11 +3275,11 @@
       <c r="C114" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="6"/>
         <v>117</v>
@@ -3291,11 +3291,11 @@
       <c r="C115" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="6"/>
         <v>118</v>
@@ -3307,7 +3307,7 @@
       <c r="C116" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E116" t="s">
@@ -3329,7 +3329,7 @@
         <v>FFFFFFFF</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="6"/>
         <v>119</v>
@@ -3341,11 +3341,11 @@
       <c r="C117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -3357,11 +3357,11 @@
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="6"/>
         <v>121</v>
@@ -3373,11 +3373,11 @@
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="6"/>
         <v>122</v>
@@ -3389,11 +3389,11 @@
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="6"/>
         <v>123</v>
@@ -3405,11 +3405,11 @@
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="6"/>
         <v>124</v>
@@ -3421,11 +3421,11 @@
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="6"/>
         <v>125</v>
@@ -3437,11 +3437,11 @@
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="6"/>
         <v>126</v>
@@ -3453,11 +3453,11 @@
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="6"/>
         <v>127</v>
@@ -3469,11 +3469,11 @@
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="6"/>
         <v>128</v>
@@ -3485,11 +3485,11 @@
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="6"/>
         <v>129</v>
@@ -3501,11 +3501,11 @@
       <c r="C127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="6"/>
         <v>130</v>
@@ -3517,11 +3517,11 @@
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="6"/>
         <v>131</v>
@@ -3533,11 +3533,11 @@
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -3549,11 +3549,11 @@
       <c r="C130" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -3565,11 +3565,11 @@
       <c r="C131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="8">A131+1</f>
         <v>134</v>
@@ -3581,11 +3581,11 @@
       <c r="C132" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="8"/>
         <v>135</v>
@@ -3597,11 +3597,11 @@
       <c r="C133" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="8"/>
         <v>136</v>
@@ -3613,14 +3613,14 @@
       <c r="C134" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E134" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="8"/>
         <v>137</v>
@@ -3632,11 +3632,11 @@
       <c r="C135" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="8"/>
         <v>138</v>
@@ -3648,11 +3648,11 @@
       <c r="C136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="8"/>
         <v>139</v>
@@ -3664,7 +3664,7 @@
       <c r="C137" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E137" t="s">
@@ -3686,7 +3686,7 @@
         <v>F0F0F0F1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="8"/>
         <v>140</v>
@@ -3698,11 +3698,11 @@
       <c r="C138" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="8"/>
         <v>141</v>
@@ -3714,11 +3714,11 @@
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="8"/>
         <v>142</v>
@@ -3730,11 +3730,11 @@
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="8"/>
         <v>143</v>
@@ -3746,11 +3746,11 @@
       <c r="C141" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="8"/>
         <v>144</v>
@@ -3762,11 +3762,11 @@
       <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="8"/>
         <v>145</v>
@@ -3778,11 +3778,11 @@
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="8"/>
         <v>146</v>
@@ -3794,11 +3794,11 @@
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="8"/>
         <v>147</v>
@@ -3810,11 +3810,11 @@
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="8"/>
         <v>148</v>
@@ -3826,11 +3826,11 @@
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="8"/>
         <v>149</v>
@@ -3842,11 +3842,11 @@
       <c r="C147" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="8"/>
         <v>150</v>
@@ -3858,11 +3858,11 @@
       <c r="C148" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="8"/>
         <v>151</v>
@@ -3874,11 +3874,11 @@
       <c r="C149" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="8"/>
         <v>152</v>
@@ -3890,11 +3890,11 @@
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="8"/>
         <v>153</v>
@@ -3906,11 +3906,11 @@
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="8"/>
         <v>154</v>
@@ -3922,11 +3922,11 @@
       <c r="C152" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="8"/>
         <v>155</v>
@@ -3938,11 +3938,11 @@
       <c r="C153" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="8"/>
         <v>156</v>
@@ -3954,11 +3954,11 @@
       <c r="C154" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="8"/>
         <v>157</v>
@@ -3970,14 +3970,14 @@
       <c r="C155" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E155" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="8"/>
         <v>158</v>
@@ -3989,11 +3989,11 @@
       <c r="C156" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="8"/>
         <v>159</v>
@@ -4002,14 +4002,14 @@
         <f t="shared" si="9"/>
         <v>155</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="8"/>
         <v>160</v>
@@ -4021,11 +4021,11 @@
       <c r="C158" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="8"/>
         <v>161</v>
@@ -4037,7 +4037,7 @@
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E159" t="s">
@@ -4059,7 +4059,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="8"/>
         <v>162</v>
@@ -4071,11 +4071,11 @@
       <c r="C160" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="8"/>
         <v>163</v>
@@ -4087,11 +4087,11 @@
       <c r="C161" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="8"/>
         <v>164</v>
@@ -4100,14 +4100,14 @@
         <f t="shared" si="9"/>
         <v>160</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="8"/>
         <v>165</v>
@@ -4119,11 +4119,11 @@
       <c r="C163" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="8"/>
         <v>166</v>
@@ -4135,7 +4135,7 @@
       <c r="C164" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E164" t="s">
@@ -4157,7 +4157,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="8"/>
         <v>167</v>
@@ -4169,11 +4169,11 @@
       <c r="C165" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="8"/>
         <v>168</v>
@@ -4185,11 +4185,11 @@
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="8"/>
         <v>169</v>
@@ -4201,11 +4201,11 @@
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="8"/>
         <v>170</v>
@@ -4217,11 +4217,11 @@
       <c r="C168" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="8"/>
         <v>171</v>
@@ -4233,11 +4233,11 @@
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="8"/>
         <v>172</v>
@@ -4249,11 +4249,11 @@
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="8"/>
         <v>173</v>
@@ -4265,11 +4265,11 @@
       <c r="C171" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="8"/>
         <v>174</v>
@@ -4281,11 +4281,11 @@
       <c r="C172" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="8"/>
         <v>175</v>
@@ -4297,11 +4297,11 @@
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="8"/>
         <v>176</v>
@@ -4313,11 +4313,11 @@
       <c r="C174" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="8"/>
         <v>177</v>
@@ -4329,11 +4329,11 @@
       <c r="C175" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="8"/>
         <v>178</v>
@@ -4345,11 +4345,11 @@
       <c r="C176" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="8"/>
         <v>179</v>
@@ -4361,11 +4361,11 @@
       <c r="C177" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="8"/>
         <v>180</v>
@@ -4377,11 +4377,11 @@
       <c r="C178" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="8"/>
         <v>181</v>
@@ -4393,11 +4393,11 @@
       <c r="C179" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="8"/>
         <v>182</v>
@@ -4409,11 +4409,11 @@
       <c r="C180" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="8"/>
         <v>183</v>
@@ -4425,11 +4425,11 @@
       <c r="C181" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="8"/>
         <v>184</v>
@@ -4441,14 +4441,14 @@
       <c r="C182" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E182" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="8"/>
         <v>185</v>
@@ -4460,11 +4460,11 @@
       <c r="C183" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="8"/>
         <v>186</v>
@@ -4473,14 +4473,14 @@
         <f t="shared" si="9"/>
         <v>182</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="8"/>
         <v>187</v>
@@ -4492,11 +4492,11 @@
       <c r="C185" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="8"/>
         <v>188</v>
@@ -4508,7 +4508,7 @@
       <c r="C186" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E186" t="s">
@@ -4530,7 +4530,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="8"/>
         <v>189</v>
@@ -4542,11 +4542,11 @@
       <c r="C187" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="8"/>
         <v>190</v>
@@ -4558,11 +4558,11 @@
       <c r="C188" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="8"/>
         <v>191</v>
@@ -4571,14 +4571,14 @@
         <f t="shared" si="9"/>
         <v>187</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="8"/>
         <v>192</v>
@@ -4590,11 +4590,11 @@
       <c r="C190" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="8"/>
         <v>193</v>
@@ -4606,7 +4606,7 @@
       <c r="C191" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E191" t="s">
@@ -4628,7 +4628,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>195</v>
       </c>
@@ -4639,11 +4639,11 @@
       <c r="C192" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="8"/>
         <v>196</v>
@@ -4655,11 +4655,11 @@
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="8"/>
         <v>197</v>
@@ -4671,11 +4671,11 @@
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D194" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="8"/>
         <v>198</v>
@@ -4687,11 +4687,11 @@
       <c r="C195" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="10">A195+1</f>
         <v>199</v>
@@ -4703,11 +4703,11 @@
       <c r="C196" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="10"/>
         <v>200</v>
@@ -4719,11 +4719,11 @@
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="10"/>
         <v>201</v>
@@ -4735,11 +4735,11 @@
       <c r="C198" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="10"/>
         <v>202</v>
@@ -4751,11 +4751,11 @@
       <c r="C199" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="10"/>
         <v>203</v>
@@ -4767,11 +4767,11 @@
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D200" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="10"/>
         <v>204</v>
@@ -4783,11 +4783,11 @@
       <c r="C201" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="10"/>
         <v>205</v>
@@ -4799,11 +4799,11 @@
       <c r="C202" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="10"/>
         <v>206</v>
@@ -4815,11 +4815,11 @@
       <c r="C203" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="10"/>
         <v>207</v>
@@ -4831,11 +4831,11 @@
       <c r="C204" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D204" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="10"/>
         <v>208</v>
@@ -4847,11 +4847,11 @@
       <c r="C205" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D205" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="10"/>
         <v>209</v>
@@ -4863,11 +4863,11 @@
       <c r="C206" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="10"/>
         <v>210</v>
@@ -4879,11 +4879,11 @@
       <c r="C207" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="10"/>
         <v>211</v>
@@ -4895,11 +4895,11 @@
       <c r="C208" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="10"/>
         <v>212</v>
@@ -4911,14 +4911,14 @@
       <c r="C209" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D209" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E209" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="10"/>
         <v>213</v>
@@ -4930,11 +4930,11 @@
       <c r="C210" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D210" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="10"/>
         <v>214</v>
@@ -4946,11 +4946,11 @@
       <c r="C211" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D211" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="10"/>
         <v>215</v>
@@ -4962,7 +4962,7 @@
       <c r="C212" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E212" t="s">
@@ -4984,7 +4984,7 @@
         <v>0002</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="10"/>
         <v>216</v>
@@ -4996,11 +4996,11 @@
       <c r="C213" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D213" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="10"/>
         <v>217</v>
@@ -5012,11 +5012,11 @@
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="10"/>
         <v>218</v>
@@ -5028,11 +5028,11 @@
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="D215" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="10"/>
         <v>219</v>
@@ -5044,11 +5044,11 @@
       <c r="C216" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D216" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="10"/>
         <v>220</v>
@@ -5060,11 +5060,11 @@
       <c r="C217" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D217" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="10"/>
         <v>221</v>
@@ -5076,11 +5076,11 @@
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D218" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="10"/>
         <v>222</v>
@@ -5092,11 +5092,11 @@
       <c r="C219" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D219" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="10"/>
         <v>223</v>
@@ -5108,11 +5108,11 @@
       <c r="C220" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D220" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="10"/>
         <v>224</v>
@@ -5124,11 +5124,11 @@
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D221" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="10"/>
         <v>225</v>
@@ -5140,11 +5140,11 @@
       <c r="C222" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="D222" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="10"/>
         <v>226</v>
@@ -5156,11 +5156,11 @@
       <c r="C223" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="10"/>
         <v>227</v>
@@ -5172,11 +5172,11 @@
       <c r="C224" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D224" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="10"/>
         <v>228</v>
@@ -5188,11 +5188,11 @@
       <c r="C225" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="D225" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="10"/>
         <v>229</v>
@@ -5204,11 +5204,11 @@
       <c r="C226" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D226" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="10"/>
         <v>230</v>
@@ -5220,11 +5220,11 @@
       <c r="C227" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D227" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="10"/>
         <v>231</v>
@@ -5236,11 +5236,11 @@
       <c r="C228" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="10"/>
         <v>232</v>
@@ -5252,11 +5252,11 @@
       <c r="C229" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D229" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="10"/>
         <v>233</v>
@@ -5268,14 +5268,14 @@
       <c r="C230" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="2" t="s">
         <v>230</v>
       </c>
       <c r="E230" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="10"/>
         <v>234</v>
@@ -5287,11 +5287,11 @@
       <c r="C231" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D231" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="10"/>
         <v>235</v>
@@ -5300,14 +5300,14 @@
         <f t="shared" si="11"/>
         <v>230</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D232" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="10"/>
         <v>236</v>
@@ -5319,7 +5319,7 @@
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D233" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E233" t="s">
@@ -5341,7 +5341,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="10"/>
         <v>237</v>
@@ -5353,11 +5353,11 @@
       <c r="C234" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D234" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="10"/>
         <v>238</v>
@@ -5369,11 +5369,11 @@
       <c r="C235" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D235" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="10"/>
         <v>239</v>
@@ -5385,11 +5385,11 @@
       <c r="C236" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="10"/>
         <v>240</v>
@@ -5401,7 +5401,7 @@
       <c r="C237" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D237" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E237" t="s">
@@ -5423,7 +5423,7 @@
         <v>FFFFFF0011</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="10"/>
         <v>241</v>
@@ -5435,11 +5435,11 @@
       <c r="C238" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D238" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="10"/>
         <v>242</v>
@@ -5451,11 +5451,11 @@
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D239" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="10"/>
         <v>243</v>
@@ -5467,11 +5467,11 @@
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D240" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="10"/>
         <v>244</v>
@@ -5483,11 +5483,11 @@
       <c r="C241" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D241" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="10"/>
         <v>245</v>
@@ -5499,11 +5499,11 @@
       <c r="C242" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D242" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="10"/>
         <v>246</v>
@@ -5515,11 +5515,11 @@
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D243" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="10"/>
         <v>247</v>
@@ -5531,11 +5531,11 @@
       <c r="C244" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D244" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="10"/>
         <v>248</v>
@@ -5547,11 +5547,11 @@
       <c r="C245" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D245" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="10"/>
         <v>249</v>
@@ -5563,11 +5563,11 @@
       <c r="C246" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D246" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="10"/>
         <v>250</v>
@@ -5579,11 +5579,11 @@
       <c r="C247" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D247" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="10"/>
         <v>251</v>
@@ -5595,11 +5595,11 @@
       <c r="C248" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D248" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="10"/>
         <v>252</v>
@@ -5611,11 +5611,11 @@
       <c r="C249" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="10"/>
         <v>253</v>
@@ -5627,11 +5627,11 @@
       <c r="C250" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D250" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="10"/>
         <v>254</v>
@@ -5643,11 +5643,11 @@
       <c r="C251" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D251" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="10"/>
         <v>255</v>
@@ -5659,11 +5659,11 @@
       <c r="C252" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D252" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="10"/>
         <v>256</v>
@@ -5675,11 +5675,11 @@
       <c r="C253" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D253" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="10"/>
         <v>257</v>
@@ -5691,11 +5691,11 @@
       <c r="C254" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D254" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="10"/>
         <v>258</v>
@@ -5707,14 +5707,14 @@
       <c r="C255" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D255" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E255" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="10"/>
         <v>259</v>
@@ -5726,11 +5726,11 @@
       <c r="C256" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="10"/>
         <v>260</v>
@@ -5742,7 +5742,7 @@
       <c r="C257" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D257" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E257" t="s">
@@ -5764,7 +5764,7 @@
         <v>FFC0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" si="10"/>
         <v>261</v>
@@ -5776,11 +5776,11 @@
       <c r="C258" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="10"/>
         <v>262</v>
@@ -5792,11 +5792,11 @@
       <c r="C259" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" ref="A260:A323" si="12">A259+1</f>
         <v>263</v>
@@ -5808,7 +5808,7 @@
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E260" t="s">
@@ -5830,7 +5830,7 @@
         <v>C0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="12"/>
         <v>264</v>
@@ -5842,11 +5842,11 @@
       <c r="C261" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D261" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="12"/>
         <v>265</v>
@@ -5858,11 +5858,11 @@
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D262" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="12"/>
         <v>266</v>
@@ -5874,11 +5874,11 @@
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D263" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="12"/>
         <v>267</v>
@@ -5890,11 +5890,11 @@
       <c r="C264" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D264" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" si="12"/>
         <v>268</v>
@@ -5906,11 +5906,11 @@
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" si="12"/>
         <v>269</v>
@@ -5922,11 +5922,11 @@
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D266" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" si="12"/>
         <v>270</v>
@@ -5938,11 +5938,11 @@
       <c r="C267" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D267" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" si="12"/>
         <v>271</v>
@@ -5954,11 +5954,11 @@
       <c r="C268" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" si="12"/>
         <v>272</v>
@@ -5970,11 +5970,11 @@
       <c r="C269" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" si="12"/>
         <v>273</v>
@@ -5986,11 +5986,11 @@
       <c r="C270" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" si="12"/>
         <v>274</v>
@@ -6002,11 +6002,11 @@
       <c r="C271" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" si="12"/>
         <v>275</v>
@@ -6018,11 +6018,11 @@
       <c r="C272" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D272" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" si="12"/>
         <v>276</v>
@@ -6034,11 +6034,11 @@
       <c r="C273" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" si="12"/>
         <v>277</v>
@@ -6050,11 +6050,11 @@
       <c r="C274" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" si="12"/>
         <v>278</v>
@@ -6066,11 +6066,11 @@
       <c r="C275" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" si="12"/>
         <v>279</v>
@@ -6082,11 +6082,11 @@
       <c r="C276" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D276" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" si="12"/>
         <v>280</v>
@@ -6098,11 +6098,11 @@
       <c r="C277" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D277" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" si="12"/>
         <v>281</v>
@@ -6114,14 +6114,14 @@
       <c r="C278" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D278" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E278" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" si="12"/>
         <v>282</v>
@@ -6133,11 +6133,11 @@
       <c r="C279" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D279" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" si="12"/>
         <v>283</v>
@@ -6149,7 +6149,7 @@
       <c r="C280" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D280" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E280" t="s">
@@ -6171,7 +6171,7 @@
         <v>0001</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>285</v>
       </c>
@@ -6182,11 +6182,11 @@
       <c r="C281" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="D281" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" si="12"/>
         <v>286</v>
@@ -6198,11 +6198,11 @@
       <c r="C282" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D282" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" si="12"/>
         <v>287</v>
@@ -6214,7 +6214,7 @@
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="D283" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E283" t="s">
@@ -6236,7 +6236,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" si="12"/>
         <v>288</v>
@@ -6248,11 +6248,11 @@
       <c r="C284" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="D284" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" si="12"/>
         <v>289</v>
@@ -6264,11 +6264,11 @@
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="D285" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" si="12"/>
         <v>290</v>
@@ -6280,11 +6280,11 @@
       <c r="C286" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D286" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" si="12"/>
         <v>291</v>
@@ -6296,11 +6296,11 @@
       <c r="C287" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" si="12"/>
         <v>292</v>
@@ -6312,11 +6312,11 @@
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="D288" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" si="12"/>
         <v>293</v>
@@ -6328,11 +6328,11 @@
       <c r="C289" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D289" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" si="12"/>
         <v>294</v>
@@ -6344,11 +6344,11 @@
       <c r="C290" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D290" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" si="12"/>
         <v>295</v>
@@ -6360,11 +6360,11 @@
       <c r="C291" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="D291" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" si="12"/>
         <v>296</v>
@@ -6376,11 +6376,11 @@
       <c r="C292" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="D292" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" si="12"/>
         <v>297</v>
@@ -6392,11 +6392,11 @@
       <c r="C293" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="D293" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" si="12"/>
         <v>298</v>
@@ -6408,11 +6408,11 @@
       <c r="C294" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D294" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" si="12"/>
         <v>299</v>
@@ -6424,11 +6424,11 @@
       <c r="C295" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="D295" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" si="12"/>
         <v>300</v>
@@ -6440,11 +6440,11 @@
       <c r="C296" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D296" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" si="12"/>
         <v>301</v>
@@ -6456,11 +6456,11 @@
       <c r="C297" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D297" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" si="12"/>
         <v>302</v>
@@ -6472,11 +6472,11 @@
       <c r="C298" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="D298" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" si="12"/>
         <v>303</v>
@@ -6488,11 +6488,11 @@
       <c r="C299" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D299" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" si="12"/>
         <v>304</v>
@@ -6504,11 +6504,11 @@
       <c r="C300" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D300" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <f t="shared" si="12"/>
         <v>305</v>
@@ -6520,14 +6520,14 @@
       <c r="C301" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D301" s="3" t="s">
+      <c r="D301" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E301" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <f t="shared" si="12"/>
         <v>306</v>
@@ -6539,11 +6539,11 @@
       <c r="C302" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D302" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <f t="shared" si="12"/>
         <v>307</v>
@@ -6555,11 +6555,11 @@
       <c r="C303" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="D303" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <f t="shared" si="12"/>
         <v>308</v>
@@ -6571,11 +6571,11 @@
       <c r="C304" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D304" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <f t="shared" si="12"/>
         <v>309</v>
@@ -6587,7 +6587,7 @@
       <c r="C305" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="D305" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E305" t="s">
@@ -6609,7 +6609,7 @@
         <v>0F0F0F0F</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <f t="shared" si="12"/>
         <v>310</v>
@@ -6621,7 +6621,7 @@
       <c r="C306" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D306" s="3" t="s">
+      <c r="D306" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E306" t="s">
@@ -6643,7 +6643,7 @@
         <v>FFFFFFFF</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>312</v>
       </c>
@@ -6654,11 +6654,11 @@
       <c r="C307" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D307" s="3" t="s">
+      <c r="D307" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <f t="shared" si="12"/>
         <v>313</v>
@@ -6670,11 +6670,11 @@
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="D308" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <f t="shared" si="12"/>
         <v>314</v>
@@ -6686,11 +6686,11 @@
       <c r="C309" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="D309" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <f t="shared" si="12"/>
         <v>315</v>
@@ -6702,11 +6702,11 @@
       <c r="C310" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="D310" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <f t="shared" si="12"/>
         <v>316</v>
@@ -6718,11 +6718,11 @@
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="D311" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <f t="shared" si="12"/>
         <v>317</v>
@@ -6734,11 +6734,11 @@
       <c r="C312" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="D312" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <f t="shared" si="12"/>
         <v>318</v>
@@ -6750,11 +6750,11 @@
       <c r="C313" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D313" s="3" t="s">
+      <c r="D313" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <f t="shared" si="12"/>
         <v>319</v>
@@ -6766,11 +6766,11 @@
       <c r="C314" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="D314" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <f t="shared" si="12"/>
         <v>320</v>
@@ -6782,11 +6782,11 @@
       <c r="C315" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D315" s="3" t="s">
+      <c r="D315" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <f t="shared" si="12"/>
         <v>321</v>
@@ -6798,11 +6798,11 @@
       <c r="C316" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="D316" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <f t="shared" si="12"/>
         <v>322</v>
@@ -6814,11 +6814,11 @@
       <c r="C317" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D317" s="3" t="s">
+      <c r="D317" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <f t="shared" si="12"/>
         <v>323</v>
@@ -6830,11 +6830,11 @@
       <c r="C318" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="D318" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <f t="shared" si="12"/>
         <v>324</v>
@@ -6846,11 +6846,11 @@
       <c r="C319" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="D319" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <f t="shared" si="12"/>
         <v>325</v>
@@ -6862,11 +6862,11 @@
       <c r="C320" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="D320" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <f t="shared" si="12"/>
         <v>326</v>
@@ -6878,11 +6878,11 @@
       <c r="C321" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D321" s="3" t="s">
+      <c r="D321" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <f t="shared" si="12"/>
         <v>327</v>
@@ -6894,11 +6894,11 @@
       <c r="C322" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="D322" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <f t="shared" si="12"/>
         <v>328</v>
@@ -6910,11 +6910,11 @@
       <c r="C323" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D323" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <f t="shared" ref="A324:A387" si="14">A323+1</f>
         <v>329</v>
@@ -6926,14 +6926,14 @@
       <c r="C324" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D324" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E324" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <f t="shared" si="14"/>
         <v>330</v>
@@ -6945,11 +6945,11 @@
       <c r="C325" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D325" s="3" t="s">
+      <c r="D325" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <f t="shared" si="14"/>
         <v>331</v>
@@ -6961,11 +6961,11 @@
       <c r="C326" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D326" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <f t="shared" si="14"/>
         <v>332</v>
@@ -6977,11 +6977,11 @@
       <c r="C327" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="D327" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <f t="shared" si="14"/>
         <v>333</v>
@@ -6993,7 +6993,7 @@
       <c r="C328" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="D328" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E328" t="s">
@@ -7015,7 +7015,7 @@
         <v>F0F0F0F1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <f t="shared" si="14"/>
         <v>334</v>
@@ -7027,11 +7027,11 @@
       <c r="C329" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="D329" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <f t="shared" si="14"/>
         <v>335</v>
@@ -7043,11 +7043,11 @@
       <c r="C330" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D330" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <f t="shared" si="14"/>
         <v>336</v>
@@ -7059,11 +7059,11 @@
       <c r="C331" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="D331" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>338</v>
       </c>
@@ -7074,11 +7074,11 @@
       <c r="C332" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D332" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <f t="shared" si="14"/>
         <v>339</v>
@@ -7090,11 +7090,11 @@
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D333" s="3" t="s">
+      <c r="D333" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <f t="shared" si="14"/>
         <v>340</v>
@@ -7106,11 +7106,11 @@
       <c r="C334" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="D334" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <f t="shared" si="14"/>
         <v>341</v>
@@ -7122,11 +7122,11 @@
       <c r="C335" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D335" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <f t="shared" si="14"/>
         <v>342</v>
@@ -7138,11 +7138,11 @@
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D336" s="3" t="s">
+      <c r="D336" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <f t="shared" si="14"/>
         <v>343</v>
@@ -7154,11 +7154,11 @@
       <c r="C337" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D337" s="3" t="s">
+      <c r="D337" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <f t="shared" si="14"/>
         <v>344</v>
@@ -7170,11 +7170,11 @@
       <c r="C338" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D338" s="3" t="s">
+      <c r="D338" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <f t="shared" si="14"/>
         <v>345</v>
@@ -7186,11 +7186,11 @@
       <c r="C339" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D339" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <f t="shared" si="14"/>
         <v>346</v>
@@ -7202,11 +7202,11 @@
       <c r="C340" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D340" s="3" t="s">
+      <c r="D340" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <f t="shared" si="14"/>
         <v>347</v>
@@ -7218,11 +7218,11 @@
       <c r="C341" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D341" s="3" t="s">
+      <c r="D341" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <f t="shared" si="14"/>
         <v>348</v>
@@ -7234,11 +7234,11 @@
       <c r="C342" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D342" s="3" t="s">
+      <c r="D342" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <f t="shared" si="14"/>
         <v>349</v>
@@ -7250,11 +7250,11 @@
       <c r="C343" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D343" s="3" t="s">
+      <c r="D343" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <f t="shared" si="14"/>
         <v>350</v>
@@ -7266,11 +7266,11 @@
       <c r="C344" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D344" s="3" t="s">
+      <c r="D344" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <f t="shared" si="14"/>
         <v>351</v>
@@ -7282,11 +7282,11 @@
       <c r="C345" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D345" s="3" t="s">
+      <c r="D345" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <f t="shared" si="14"/>
         <v>352</v>
@@ -7298,11 +7298,11 @@
       <c r="C346" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D346" s="3" t="s">
+      <c r="D346" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <f t="shared" si="14"/>
         <v>353</v>
@@ -7314,11 +7314,11 @@
       <c r="C347" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D347" s="3" t="s">
+      <c r="D347" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <f t="shared" si="14"/>
         <v>354</v>
@@ -7330,11 +7330,11 @@
       <c r="C348" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D348" s="3" t="s">
+      <c r="D348" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <f t="shared" si="14"/>
         <v>355</v>
@@ -7346,14 +7346,14 @@
       <c r="C349" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D349" s="3" t="s">
+      <c r="D349" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E349" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <f t="shared" si="14"/>
         <v>356</v>
@@ -7365,11 +7365,11 @@
       <c r="C350" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D350" s="3" t="s">
+      <c r="D350" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <f t="shared" si="14"/>
         <v>357</v>
@@ -7381,11 +7381,11 @@
       <c r="C351" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D351" s="3" t="s">
+      <c r="D351" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <f t="shared" si="14"/>
         <v>358</v>
@@ -7397,7 +7397,7 @@
       <c r="C352" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D352" s="3" t="s">
+      <c r="D352" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E352" t="s">
@@ -7419,7 +7419,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <f t="shared" si="14"/>
         <v>359</v>
@@ -7431,11 +7431,11 @@
       <c r="C353" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D353" s="3" t="s">
+      <c r="D353" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <f t="shared" si="14"/>
         <v>360</v>
@@ -7447,11 +7447,11 @@
       <c r="C354" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D354" s="3" t="s">
+      <c r="D354" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <f t="shared" si="14"/>
         <v>361</v>
@@ -7463,11 +7463,11 @@
       <c r="C355" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D355" s="3" t="s">
+      <c r="D355" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <f t="shared" si="14"/>
         <v>362</v>
@@ -7479,7 +7479,7 @@
       <c r="C356" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D356" s="3" t="s">
+      <c r="D356" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E356" t="s">
@@ -7501,7 +7501,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>364</v>
       </c>
@@ -7512,11 +7512,11 @@
       <c r="C357" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D357" s="3" t="s">
+      <c r="D357" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <f t="shared" si="14"/>
         <v>365</v>
@@ -7528,11 +7528,11 @@
       <c r="C358" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D358" s="3" t="s">
+      <c r="D358" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <f t="shared" si="14"/>
         <v>366</v>
@@ -7544,11 +7544,11 @@
       <c r="C359" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D359" s="3" t="s">
+      <c r="D359" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <f t="shared" si="14"/>
         <v>367</v>
@@ -7560,11 +7560,11 @@
       <c r="C360" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D360" s="3" t="s">
+      <c r="D360" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <f t="shared" si="14"/>
         <v>368</v>
@@ -7576,11 +7576,11 @@
       <c r="C361" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D361" s="3" t="s">
+      <c r="D361" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <f t="shared" si="14"/>
         <v>369</v>
@@ -7592,11 +7592,11 @@
       <c r="C362" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D362" s="3" t="s">
+      <c r="D362" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <f t="shared" si="14"/>
         <v>370</v>
@@ -7608,11 +7608,11 @@
       <c r="C363" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D363" s="3" t="s">
+      <c r="D363" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <f t="shared" si="14"/>
         <v>371</v>
@@ -7624,11 +7624,11 @@
       <c r="C364" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D364" s="3" t="s">
+      <c r="D364" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <f t="shared" si="14"/>
         <v>372</v>
@@ -7640,11 +7640,11 @@
       <c r="C365" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D365" s="3" t="s">
+      <c r="D365" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <f t="shared" si="14"/>
         <v>373</v>
@@ -7656,11 +7656,11 @@
       <c r="C366" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D366" s="3" t="s">
+      <c r="D366" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <f t="shared" si="14"/>
         <v>374</v>
@@ -7672,11 +7672,11 @@
       <c r="C367" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D367" s="3" t="s">
+      <c r="D367" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <f t="shared" si="14"/>
         <v>375</v>
@@ -7688,11 +7688,11 @@
       <c r="C368" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D368" s="3" t="s">
+      <c r="D368" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <f t="shared" si="14"/>
         <v>376</v>
@@ -7704,11 +7704,11 @@
       <c r="C369" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D369" s="3" t="s">
+      <c r="D369" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <f t="shared" si="14"/>
         <v>377</v>
@@ -7720,11 +7720,11 @@
       <c r="C370" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D370" s="3" t="s">
+      <c r="D370" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <f t="shared" si="14"/>
         <v>378</v>
@@ -7736,11 +7736,11 @@
       <c r="C371" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D371" s="3" t="s">
+      <c r="D371" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <f t="shared" si="14"/>
         <v>379</v>
@@ -7752,11 +7752,11 @@
       <c r="C372" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D372" s="3" t="s">
+      <c r="D372" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <f t="shared" si="14"/>
         <v>380</v>
@@ -7768,11 +7768,11 @@
       <c r="C373" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D373" s="3" t="s">
+      <c r="D373" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <f t="shared" si="14"/>
         <v>381</v>
@@ -7784,14 +7784,14 @@
       <c r="C374" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D374" s="3" t="s">
+      <c r="D374" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E374" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <f t="shared" si="14"/>
         <v>382</v>
@@ -7803,11 +7803,11 @@
       <c r="C375" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D375" s="3" t="s">
+      <c r="D375" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <f t="shared" si="14"/>
         <v>383</v>
@@ -7819,11 +7819,11 @@
       <c r="C376" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D376" s="3" t="s">
+      <c r="D376" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <f t="shared" si="14"/>
         <v>384</v>
@@ -7835,7 +7835,7 @@
       <c r="C377" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D377" s="3" t="s">
+      <c r="D377" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E377" t="s">
@@ -7857,7 +7857,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>386</v>
       </c>
@@ -7868,11 +7868,11 @@
       <c r="C378" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D378" s="3" t="s">
+      <c r="D378" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <f t="shared" si="14"/>
         <v>387</v>
@@ -7884,11 +7884,11 @@
       <c r="C379" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D379" s="3" t="s">
+      <c r="D379" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <f t="shared" si="14"/>
         <v>388</v>
@@ -7900,11 +7900,11 @@
       <c r="C380" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D380" s="3" t="s">
+      <c r="D380" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <f t="shared" si="14"/>
         <v>389</v>
@@ -7916,7 +7916,7 @@
       <c r="C381" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D381" s="3" t="s">
+      <c r="D381" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E381" t="s">
@@ -7938,7 +7938,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>391</v>
       </c>
@@ -7949,11 +7949,11 @@
       <c r="C382" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D382" s="3" t="s">
+      <c r="D382" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <f t="shared" si="14"/>
         <v>392</v>
@@ -7965,11 +7965,11 @@
       <c r="C383" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D383" s="3" t="s">
+      <c r="D383" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <f t="shared" si="14"/>
         <v>393</v>
@@ -7981,11 +7981,11 @@
       <c r="C384" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D384" s="3" t="s">
+      <c r="D384" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <f t="shared" si="14"/>
         <v>394</v>
@@ -7997,11 +7997,11 @@
       <c r="C385" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D385" s="3" t="s">
+      <c r="D385" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <f t="shared" si="14"/>
         <v>395</v>
@@ -8013,11 +8013,11 @@
       <c r="C386" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D386" s="3" t="s">
+      <c r="D386" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <f t="shared" si="14"/>
         <v>396</v>
@@ -8029,11 +8029,11 @@
       <c r="C387" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D387" s="3" t="s">
+      <c r="D387" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <f t="shared" ref="A388:A451" si="16">A387+1</f>
         <v>397</v>
@@ -8045,11 +8045,11 @@
       <c r="C388" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D388" s="3" t="s">
+      <c r="D388" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <f t="shared" si="16"/>
         <v>398</v>
@@ -8061,11 +8061,11 @@
       <c r="C389" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D389" s="3" t="s">
+      <c r="D389" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <f t="shared" si="16"/>
         <v>399</v>
@@ -8077,11 +8077,11 @@
       <c r="C390" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D390" s="3" t="s">
+      <c r="D390" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <f t="shared" si="16"/>
         <v>400</v>
@@ -8093,11 +8093,11 @@
       <c r="C391" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D391" s="3" t="s">
+      <c r="D391" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <f t="shared" si="16"/>
         <v>401</v>
@@ -8109,11 +8109,11 @@
       <c r="C392" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D392" s="3" t="s">
+      <c r="D392" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <f t="shared" si="16"/>
         <v>402</v>
@@ -8125,11 +8125,11 @@
       <c r="C393" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D393" s="3" t="s">
+      <c r="D393" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <f t="shared" si="16"/>
         <v>403</v>
@@ -8141,11 +8141,11 @@
       <c r="C394" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D394" s="3" t="s">
+      <c r="D394" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <f t="shared" si="16"/>
         <v>404</v>
@@ -8157,11 +8157,11 @@
       <c r="C395" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D395" s="3" t="s">
+      <c r="D395" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <f t="shared" si="16"/>
         <v>405</v>
@@ -8173,11 +8173,11 @@
       <c r="C396" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D396" s="3" t="s">
+      <c r="D396" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <f t="shared" si="16"/>
         <v>406</v>
@@ -8189,11 +8189,11 @@
       <c r="C397" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D397" s="3" t="s">
+      <c r="D397" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <f t="shared" si="16"/>
         <v>407</v>
@@ -8205,11 +8205,11 @@
       <c r="C398" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D398" s="3" t="s">
+      <c r="D398" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <f t="shared" si="16"/>
         <v>408</v>
@@ -8221,11 +8221,11 @@
       <c r="C399" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D399" s="3" t="s">
+      <c r="D399" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <f t="shared" si="16"/>
         <v>409</v>
@@ -8237,11 +8237,11 @@
       <c r="C400" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D400" s="3" t="s">
+      <c r="D400" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <f t="shared" si="16"/>
         <v>410</v>
@@ -8253,11 +8253,11 @@
       <c r="C401" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D401" s="3" t="s">
+      <c r="D401" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>412</v>
       </c>
@@ -8268,11 +8268,11 @@
       <c r="C402" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D402" s="3" t="s">
+      <c r="D402" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <f t="shared" si="16"/>
         <v>413</v>
@@ -8284,11 +8284,11 @@
       <c r="C403" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D403" s="3" t="s">
+      <c r="D403" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <f t="shared" si="16"/>
         <v>414</v>
@@ -8300,11 +8300,11 @@
       <c r="C404" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D404" s="3" t="s">
+      <c r="D404" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <f t="shared" si="16"/>
         <v>415</v>
@@ -8316,11 +8316,11 @@
       <c r="C405" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D405" s="3" t="s">
+      <c r="D405" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <f t="shared" si="16"/>
         <v>416</v>
@@ -8332,11 +8332,11 @@
       <c r="C406" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D406" s="3" t="s">
+      <c r="D406" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <f t="shared" si="16"/>
         <v>417</v>
@@ -8348,11 +8348,11 @@
       <c r="C407" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D407" s="3" t="s">
+      <c r="D407" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <f t="shared" si="16"/>
         <v>418</v>
@@ -8364,11 +8364,11 @@
       <c r="C408" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D408" s="3" t="s">
+      <c r="D408" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <f t="shared" si="16"/>
         <v>419</v>
@@ -8380,11 +8380,11 @@
       <c r="C409" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D409" s="3" t="s">
+      <c r="D409" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <f t="shared" si="16"/>
         <v>420</v>
@@ -8396,11 +8396,11 @@
       <c r="C410" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D410" s="3" t="s">
+      <c r="D410" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <f t="shared" si="16"/>
         <v>421</v>
@@ -8412,11 +8412,11 @@
       <c r="C411" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D411" s="3" t="s">
+      <c r="D411" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <f t="shared" si="16"/>
         <v>422</v>
@@ -8428,11 +8428,11 @@
       <c r="C412" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D412" s="3" t="s">
+      <c r="D412" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <f t="shared" si="16"/>
         <v>423</v>
@@ -8444,11 +8444,11 @@
       <c r="C413" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D413" s="3" t="s">
+      <c r="D413" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <f t="shared" si="16"/>
         <v>424</v>
@@ -8460,11 +8460,11 @@
       <c r="C414" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D414" s="3" t="s">
+      <c r="D414" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <f t="shared" si="16"/>
         <v>425</v>
@@ -8476,11 +8476,11 @@
       <c r="C415" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D415" s="3" t="s">
+      <c r="D415" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <f t="shared" si="16"/>
         <v>426</v>
@@ -8492,11 +8492,11 @@
       <c r="C416" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D416" s="3" t="s">
+      <c r="D416" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <f t="shared" si="16"/>
         <v>427</v>
@@ -8508,11 +8508,11 @@
       <c r="C417" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D417" s="3" t="s">
+      <c r="D417" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <f t="shared" si="16"/>
         <v>428</v>
@@ -8524,11 +8524,11 @@
       <c r="C418" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D418" s="3" t="s">
+      <c r="D418" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <f t="shared" si="16"/>
         <v>429</v>
@@ -8540,14 +8540,14 @@
       <c r="C419" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D419" s="3" t="s">
+      <c r="D419" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E419" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <f t="shared" si="16"/>
         <v>430</v>
@@ -8559,11 +8559,11 @@
       <c r="C420" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D420" s="3" t="s">
+      <c r="D420" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <f t="shared" si="16"/>
         <v>431</v>
@@ -8575,11 +8575,11 @@
       <c r="C421" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D421" s="3" t="s">
+      <c r="D421" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B422">
         <f t="shared" si="17"/>
         <v>420</v>
@@ -8588,7 +8588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B423">
         <f t="shared" si="17"/>
         <v>421</v>
@@ -8597,7 +8597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <f>A421+1</f>
         <v>432</v>
@@ -8613,7 +8613,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>434</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>0E</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <f t="shared" si="16"/>
         <v>435</v>
@@ -8662,7 +8662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <f t="shared" si="16"/>
         <v>436</v>
@@ -8678,7 +8678,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <f t="shared" si="16"/>
         <v>437</v>
@@ -8690,11 +8690,11 @@
       <c r="C428" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D428" s="3" t="s">
+      <c r="D428" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <f t="shared" si="16"/>
         <v>438</v>
@@ -8706,11 +8706,11 @@
       <c r="C429" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D429" s="3" t="s">
+      <c r="D429" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <f t="shared" si="16"/>
         <v>439</v>
@@ -8722,11 +8722,11 @@
       <c r="C430" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D430" s="3" t="s">
+      <c r="D430" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <f t="shared" si="16"/>
         <v>440</v>
@@ -8738,11 +8738,11 @@
       <c r="C431" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D431" s="3" t="s">
+      <c r="D431" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <f t="shared" si="16"/>
         <v>441</v>
@@ -8754,11 +8754,11 @@
       <c r="C432" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D432" s="3" t="s">
+      <c r="D432" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <f t="shared" si="16"/>
         <v>442</v>
@@ -8770,11 +8770,11 @@
       <c r="C433" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D433" s="3" t="s">
+      <c r="D433" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <f t="shared" si="16"/>
         <v>443</v>
@@ -8786,11 +8786,11 @@
       <c r="C434" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D434" s="3" t="s">
+      <c r="D434" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <f t="shared" si="16"/>
         <v>444</v>
@@ -8802,11 +8802,11 @@
       <c r="C435" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D435" s="3" t="s">
+      <c r="D435" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <f t="shared" si="16"/>
         <v>445</v>
@@ -8818,11 +8818,11 @@
       <c r="C436" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D436" s="3" t="s">
+      <c r="D436" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437">
         <f t="shared" si="16"/>
         <v>446</v>
@@ -8834,11 +8834,11 @@
       <c r="C437" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D437" s="3" t="s">
+      <c r="D437" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438">
         <f t="shared" si="16"/>
         <v>447</v>
@@ -8850,11 +8850,11 @@
       <c r="C438" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D438" s="3" t="s">
+      <c r="D438" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <f t="shared" si="16"/>
         <v>448</v>
@@ -8866,11 +8866,11 @@
       <c r="C439" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D439" s="3" t="s">
+      <c r="D439" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <f t="shared" si="16"/>
         <v>449</v>
@@ -8882,11 +8882,11 @@
       <c r="C440" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D440" s="3" t="s">
+      <c r="D440" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <f t="shared" si="16"/>
         <v>450</v>
@@ -8898,11 +8898,11 @@
       <c r="C441" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D441" s="3" t="s">
+      <c r="D441" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442">
         <f t="shared" si="16"/>
         <v>451</v>
@@ -8914,14 +8914,14 @@
       <c r="C442" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D442" s="3" t="s">
+      <c r="D442" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E442" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443">
         <f t="shared" si="16"/>
         <v>452</v>
@@ -8933,11 +8933,11 @@
       <c r="C443" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D443" s="3" t="s">
+      <c r="D443" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444">
         <f t="shared" si="16"/>
         <v>453</v>
@@ -8949,11 +8949,11 @@
       <c r="C444" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D444" s="3" t="s">
+      <c r="D444" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B445">
         <f t="shared" si="17"/>
         <v>443</v>
@@ -8962,7 +8962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B446">
         <f t="shared" si="17"/>
         <v>444</v>
@@ -8971,7 +8971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447">
         <f>A444+1</f>
         <v>454</v>
@@ -8983,11 +8983,11 @@
       <c r="C447" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D447" s="3" t="s">
+      <c r="D447" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>456</v>
       </c>
@@ -8998,7 +8998,7 @@
       <c r="C448" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D448" s="3" t="s">
+      <c r="D448" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E448" t="s">
@@ -9019,7 +9019,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
         <f t="shared" si="16"/>
         <v>457</v>
@@ -9031,11 +9031,11 @@
       <c r="C449" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D449" s="3" t="s">
+      <c r="D449" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
         <f t="shared" si="16"/>
         <v>458</v>
@@ -9047,11 +9047,11 @@
       <c r="C450" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D450" s="3" t="s">
+      <c r="D450" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
         <f t="shared" si="16"/>
         <v>459</v>
@@ -9067,7 +9067,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
         <f t="shared" ref="A452:A515" si="18">A451+1</f>
         <v>460</v>
@@ -9083,23 +9083,23 @@
         <v>98</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
         <f t="shared" si="18"/>
         <v>461</v>
       </c>
       <c r="B453">
-        <f t="shared" ref="B453:B516" si="19">B452+1</f>
+        <f t="shared" ref="B453:B513" si="19">B452+1</f>
         <v>451</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D453" s="3" t="s">
+      <c r="D453" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
         <f t="shared" si="18"/>
         <v>462</v>
@@ -9111,11 +9111,11 @@
       <c r="C454" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D454" s="3" t="s">
+      <c r="D454" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
         <f t="shared" si="18"/>
         <v>463</v>
@@ -9127,11 +9127,11 @@
       <c r="C455" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D455" s="3" t="s">
+      <c r="D455" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
         <f t="shared" si="18"/>
         <v>464</v>
@@ -9143,11 +9143,11 @@
       <c r="C456" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D456" s="3" t="s">
+      <c r="D456" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
         <f t="shared" si="18"/>
         <v>465</v>
@@ -9159,11 +9159,11 @@
       <c r="C457" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D457" s="3" t="s">
+      <c r="D457" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
         <f t="shared" si="18"/>
         <v>466</v>
@@ -9175,11 +9175,11 @@
       <c r="C458" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D458" s="3" t="s">
+      <c r="D458" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
         <f t="shared" si="18"/>
         <v>467</v>
@@ -9191,11 +9191,11 @@
       <c r="C459" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D459" s="3" t="s">
+      <c r="D459" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
         <f t="shared" si="18"/>
         <v>468</v>
@@ -9207,11 +9207,11 @@
       <c r="C460" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D460" s="3" t="s">
+      <c r="D460" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
         <f t="shared" si="18"/>
         <v>469</v>
@@ -9223,11 +9223,11 @@
       <c r="C461" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D461" s="3" t="s">
+      <c r="D461" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
         <f t="shared" si="18"/>
         <v>470</v>
@@ -9239,11 +9239,11 @@
       <c r="C462" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D462" s="3" t="s">
+      <c r="D462" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
         <f t="shared" si="18"/>
         <v>471</v>
@@ -9255,11 +9255,11 @@
       <c r="C463" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D463" s="3" t="s">
+      <c r="D463" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
         <f t="shared" si="18"/>
         <v>472</v>
@@ -9271,11 +9271,11 @@
       <c r="C464" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D464" s="3" t="s">
+      <c r="D464" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465">
         <f t="shared" si="18"/>
         <v>473</v>
@@ -9287,14 +9287,14 @@
       <c r="C465" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D465" s="3" t="s">
+      <c r="D465" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E465" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466">
         <f t="shared" si="18"/>
         <v>474</v>
@@ -9306,11 +9306,11 @@
       <c r="C466" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D466" s="3" t="s">
+      <c r="D466" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467">
         <f t="shared" si="18"/>
         <v>475</v>
@@ -9322,11 +9322,11 @@
       <c r="C467" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D467" s="3" t="s">
+      <c r="D467" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B468">
         <f t="shared" si="19"/>
         <v>466</v>
@@ -9335,7 +9335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B469">
         <f t="shared" si="19"/>
         <v>467</v>
@@ -9344,7 +9344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470">
         <f>A467+1</f>
         <v>476</v>
@@ -9356,11 +9356,11 @@
       <c r="C470" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D470" s="3" t="s">
+      <c r="D470" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>479</v>
       </c>
@@ -9371,7 +9371,7 @@
       <c r="C471" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D471" s="3" t="s">
+      <c r="D471" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E471" t="s">
@@ -9393,7 +9393,7 @@
         <v>0E</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472">
         <f t="shared" si="18"/>
         <v>480</v>
@@ -9405,11 +9405,11 @@
       <c r="C472" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D472" s="3" t="s">
+      <c r="D472" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473">
         <f t="shared" si="18"/>
         <v>481</v>
@@ -9421,11 +9421,11 @@
       <c r="C473" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D473" s="3" t="s">
+      <c r="D473" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474">
         <f t="shared" si="18"/>
         <v>482</v>
@@ -9437,11 +9437,11 @@
       <c r="C474" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D474" s="3" t="s">
+      <c r="D474" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475">
         <f t="shared" si="18"/>
         <v>483</v>
@@ -9453,11 +9453,11 @@
       <c r="C475" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D475" s="3" t="s">
+      <c r="D475" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476">
         <f t="shared" si="18"/>
         <v>484</v>
@@ -9473,7 +9473,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477">
         <f t="shared" si="18"/>
         <v>485</v>
@@ -9489,7 +9489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478">
         <f t="shared" si="18"/>
         <v>486</v>
@@ -9501,11 +9501,11 @@
       <c r="C478" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D478" s="3" t="s">
+      <c r="D478" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479">
         <f t="shared" si="18"/>
         <v>487</v>
@@ -9517,11 +9517,11 @@
       <c r="C479" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D479" s="3" t="s">
+      <c r="D479" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480">
         <f t="shared" si="18"/>
         <v>488</v>
@@ -9533,11 +9533,11 @@
       <c r="C480" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D480" s="3" t="s">
+      <c r="D480" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481">
         <f t="shared" si="18"/>
         <v>489</v>
@@ -9549,11 +9549,11 @@
       <c r="C481" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D481" s="3" t="s">
+      <c r="D481" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482">
         <f t="shared" si="18"/>
         <v>490</v>
@@ -9565,11 +9565,11 @@
       <c r="C482" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D482" s="3" t="s">
+      <c r="D482" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483">
         <f t="shared" si="18"/>
         <v>491</v>
@@ -9581,11 +9581,11 @@
       <c r="C483" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D483" s="3" t="s">
+      <c r="D483" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484">
         <f t="shared" si="18"/>
         <v>492</v>
@@ -9597,11 +9597,11 @@
       <c r="C484" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D484" s="3" t="s">
+      <c r="D484" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485">
         <f t="shared" si="18"/>
         <v>493</v>
@@ -9613,11 +9613,11 @@
       <c r="C485" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D485" s="3" t="s">
+      <c r="D485" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486">
         <f t="shared" si="18"/>
         <v>494</v>
@@ -9629,11 +9629,11 @@
       <c r="C486" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D486" s="3" t="s">
+      <c r="D486" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487">
         <f t="shared" si="18"/>
         <v>495</v>
@@ -9645,11 +9645,11 @@
       <c r="C487" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D487" s="3" t="s">
+      <c r="D487" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488">
         <f t="shared" si="18"/>
         <v>496</v>
@@ -9661,14 +9661,14 @@
       <c r="C488" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D488" s="3" t="s">
+      <c r="D488" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E488" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489">
         <f t="shared" si="18"/>
         <v>497</v>
@@ -9680,11 +9680,11 @@
       <c r="C489" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D489" s="3" t="s">
+      <c r="D489" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490">
         <f t="shared" si="18"/>
         <v>498</v>
@@ -9696,11 +9696,11 @@
       <c r="C490" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D490" s="3" t="s">
+      <c r="D490" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B491">
         <f t="shared" si="19"/>
         <v>489</v>
@@ -9709,7 +9709,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B492">
         <f t="shared" si="19"/>
         <v>490</v>
@@ -9718,7 +9718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493">
         <f>A490+1</f>
         <v>499</v>
@@ -9730,11 +9730,11 @@
       <c r="C493" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D493" s="3" t="s">
+      <c r="D493" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>502</v>
       </c>
@@ -9745,7 +9745,7 @@
       <c r="C494" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D494" s="3" t="s">
+      <c r="D494" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E494" t="s">
@@ -9767,7 +9767,7 @@
         <v>0E</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495">
         <f t="shared" si="18"/>
         <v>503</v>
@@ -9779,11 +9779,11 @@
       <c r="C495" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D495" s="3" t="s">
+      <c r="D495" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496">
         <f t="shared" si="18"/>
         <v>504</v>
@@ -9795,11 +9795,11 @@
       <c r="C496" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D496" s="3" t="s">
+      <c r="D496" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <f t="shared" si="18"/>
         <v>505</v>
@@ -9811,11 +9811,11 @@
       <c r="C497" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D497" s="3" t="s">
+      <c r="D497" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <f t="shared" si="18"/>
         <v>506</v>
@@ -9827,11 +9827,11 @@
       <c r="C498" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D498" s="3" t="s">
+      <c r="D498" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <f t="shared" si="18"/>
         <v>507</v>
@@ -9843,11 +9843,11 @@
       <c r="C499" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D499" s="3" t="s">
+      <c r="D499" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <f t="shared" si="18"/>
         <v>508</v>
@@ -9859,11 +9859,11 @@
       <c r="C500" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D500" s="3" t="s">
+      <c r="D500" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <f t="shared" si="18"/>
         <v>509</v>
@@ -9879,7 +9879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <f t="shared" si="18"/>
         <v>510</v>
@@ -9895,7 +9895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <f t="shared" si="18"/>
         <v>511</v>
@@ -9907,11 +9907,11 @@
       <c r="C503" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D503" s="3" t="s">
+      <c r="D503" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <f t="shared" si="18"/>
         <v>512</v>
@@ -9923,11 +9923,11 @@
       <c r="C504" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D504" s="3" t="s">
+      <c r="D504" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <f t="shared" si="18"/>
         <v>513</v>
@@ -9939,11 +9939,11 @@
       <c r="C505" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D505" s="3" t="s">
+      <c r="D505" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <f t="shared" si="18"/>
         <v>514</v>
@@ -9955,11 +9955,11 @@
       <c r="C506" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D506" s="3" t="s">
+      <c r="D506" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <f t="shared" si="18"/>
         <v>515</v>
@@ -9971,11 +9971,11 @@
       <c r="C507" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D507" s="3" t="s">
+      <c r="D507" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <f t="shared" si="18"/>
         <v>516</v>
@@ -9987,11 +9987,11 @@
       <c r="C508" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D508" s="3" t="s">
+      <c r="D508" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <f t="shared" si="18"/>
         <v>517</v>
@@ -10003,11 +10003,11 @@
       <c r="C509" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D509" s="3" t="s">
+      <c r="D509" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <f t="shared" si="18"/>
         <v>518</v>
@@ -10019,11 +10019,11 @@
       <c r="C510" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D510" s="3" t="s">
+      <c r="D510" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <f t="shared" si="18"/>
         <v>519</v>
@@ -10035,14 +10035,14 @@
       <c r="C511" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D511" s="3" t="s">
+      <c r="D511" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E511" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <f t="shared" si="18"/>
         <v>520</v>
@@ -10054,11 +10054,11 @@
       <c r="C512" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D512" s="3" t="s">
+      <c r="D512" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513">
         <f t="shared" si="18"/>
         <v>521</v>
@@ -10070,11 +10070,11 @@
       <c r="C513" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D513" s="3" t="s">
+      <c r="D513" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514">
         <f t="shared" si="18"/>
         <v>522</v>
@@ -10083,7 +10083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515">
         <f t="shared" si="18"/>
         <v>523</v>
@@ -10092,7 +10092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516">
         <f t="shared" ref="A516:A579" si="20">A515+1</f>
         <v>524</v>
@@ -10104,11 +10104,11 @@
       <c r="C516" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D516" s="3" t="s">
+      <c r="D516" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517">
         <f t="shared" si="20"/>
         <v>525</v>
@@ -10120,7 +10120,7 @@
       <c r="C517" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D517" s="3" t="s">
+      <c r="D517" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E517" t="s">
@@ -10141,23 +10141,23 @@
         <v>00</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518">
         <f t="shared" si="20"/>
         <v>526</v>
       </c>
       <c r="B518">
-        <f t="shared" ref="B517:B580" si="21">B517+1</f>
+        <f t="shared" ref="B518:B580" si="21">B517+1</f>
         <v>514</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D518" s="3" t="s">
+      <c r="D518" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519">
         <f t="shared" si="20"/>
         <v>527</v>
@@ -10169,11 +10169,11 @@
       <c r="C519" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D519" s="3" t="s">
+      <c r="D519" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520">
         <f t="shared" si="20"/>
         <v>528</v>
@@ -10185,11 +10185,11 @@
       <c r="C520" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D520" s="3" t="s">
+      <c r="D520" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521">
         <f t="shared" si="20"/>
         <v>529</v>
@@ -10201,11 +10201,11 @@
       <c r="C521" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D521" s="3" t="s">
+      <c r="D521" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522">
         <f t="shared" si="20"/>
         <v>530</v>
@@ -10217,11 +10217,11 @@
       <c r="C522" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D522" s="3" t="s">
+      <c r="D522" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523">
         <f t="shared" si="20"/>
         <v>531</v>
@@ -10233,11 +10233,11 @@
       <c r="C523" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D523" s="3" t="s">
+      <c r="D523" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524">
         <f t="shared" si="20"/>
         <v>532</v>
@@ -10249,11 +10249,11 @@
       <c r="C524" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D524" s="3" t="s">
+      <c r="D524" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525">
         <f t="shared" si="20"/>
         <v>533</v>
@@ -10265,11 +10265,11 @@
       <c r="C525" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D525" s="3" t="s">
+      <c r="D525" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526">
         <f t="shared" si="20"/>
         <v>534</v>
@@ -10285,7 +10285,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527">
         <f t="shared" si="20"/>
         <v>535</v>
@@ -10301,7 +10301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528">
         <f t="shared" si="20"/>
         <v>536</v>
@@ -10313,11 +10313,11 @@
       <c r="C528" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D528" s="3" t="s">
+      <c r="D528" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <f t="shared" si="20"/>
         <v>537</v>
@@ -10329,11 +10329,11 @@
       <c r="C529" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D529" s="3" t="s">
+      <c r="D529" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <f t="shared" si="20"/>
         <v>538</v>
@@ -10345,11 +10345,11 @@
       <c r="C530" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D530" s="3" t="s">
+      <c r="D530" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <f t="shared" si="20"/>
         <v>539</v>
@@ -10361,11 +10361,11 @@
       <c r="C531" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D531" s="3" t="s">
+      <c r="D531" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <f t="shared" si="20"/>
         <v>540</v>
@@ -10377,11 +10377,11 @@
       <c r="C532" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D532" s="3" t="s">
+      <c r="D532" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <f t="shared" si="20"/>
         <v>541</v>
@@ -10393,11 +10393,11 @@
       <c r="C533" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D533" s="3" t="s">
+      <c r="D533" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <f t="shared" si="20"/>
         <v>542</v>
@@ -10409,14 +10409,14 @@
       <c r="C534" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D534" s="3" t="s">
+      <c r="D534" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E534" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <f t="shared" si="20"/>
         <v>543</v>
@@ -10428,11 +10428,11 @@
       <c r="C535" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D535" s="3" t="s">
+      <c r="D535" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <f t="shared" si="20"/>
         <v>544</v>
@@ -10444,11 +10444,11 @@
       <c r="C536" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D536" s="3" t="s">
+      <c r="D536" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B537">
         <f t="shared" si="21"/>
         <v>533</v>
@@ -10457,7 +10457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B538">
         <f t="shared" si="21"/>
         <v>534</v>
@@ -10466,7 +10466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <f>A536+1</f>
         <v>545</v>
@@ -10478,11 +10478,11 @@
       <c r="C539" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D539" s="3" t="s">
+      <c r="D539" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <f>A539+3</f>
         <v>548</v>
@@ -10494,7 +10494,7 @@
       <c r="C540" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D540" s="3" t="s">
+      <c r="D540" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E540" t="s">
@@ -10515,7 +10515,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <f t="shared" si="20"/>
         <v>549</v>
@@ -10527,11 +10527,11 @@
       <c r="C541" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D541" s="3" t="s">
+      <c r="D541" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <f t="shared" si="20"/>
         <v>550</v>
@@ -10543,11 +10543,11 @@
       <c r="C542" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D542" s="3" t="s">
+      <c r="D542" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543">
         <f t="shared" si="20"/>
         <v>551</v>
@@ -10559,11 +10559,11 @@
       <c r="C543" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D543" s="3" t="s">
+      <c r="D543" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544">
         <f t="shared" si="20"/>
         <v>552</v>
@@ -10575,11 +10575,11 @@
       <c r="C544" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D544" s="3" t="s">
+      <c r="D544" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545">
         <f t="shared" si="20"/>
         <v>553</v>
@@ -10591,11 +10591,11 @@
       <c r="C545" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D545" s="3" t="s">
+      <c r="D545" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546">
         <f t="shared" si="20"/>
         <v>554</v>
@@ -10607,11 +10607,11 @@
       <c r="C546" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D546" s="3" t="s">
+      <c r="D546" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547">
         <f t="shared" si="20"/>
         <v>555</v>
@@ -10623,11 +10623,11 @@
       <c r="C547" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D547" s="3" t="s">
+      <c r="D547" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548">
         <f t="shared" si="20"/>
         <v>556</v>
@@ -10639,11 +10639,11 @@
       <c r="C548" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D548" s="3" t="s">
+      <c r="D548" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549">
         <f t="shared" si="20"/>
         <v>557</v>
@@ -10655,11 +10655,11 @@
       <c r="C549" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D549" s="3" t="s">
+      <c r="D549" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550">
         <f t="shared" si="20"/>
         <v>558</v>
@@ -10671,11 +10671,11 @@
       <c r="C550" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D550" s="3" t="s">
+      <c r="D550" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551">
         <f t="shared" si="20"/>
         <v>559</v>
@@ -10691,7 +10691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552">
         <f t="shared" si="20"/>
         <v>560</v>
@@ -10707,7 +10707,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553">
         <f t="shared" si="20"/>
         <v>561</v>
@@ -10719,11 +10719,11 @@
       <c r="C553" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D553" s="3" t="s">
+      <c r="D553" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554">
         <f t="shared" si="20"/>
         <v>562</v>
@@ -10735,11 +10735,11 @@
       <c r="C554" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D554" s="3" t="s">
+      <c r="D554" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555">
         <f t="shared" si="20"/>
         <v>563</v>
@@ -10751,11 +10751,11 @@
       <c r="C555" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D555" s="3" t="s">
+      <c r="D555" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556">
         <f t="shared" si="20"/>
         <v>564</v>
@@ -10767,11 +10767,11 @@
       <c r="C556" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D556" s="3" t="s">
+      <c r="D556" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557">
         <f t="shared" si="20"/>
         <v>565</v>
@@ -10783,14 +10783,14 @@
       <c r="C557" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D557" s="3" t="s">
+      <c r="D557" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E557" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558">
         <f t="shared" si="20"/>
         <v>566</v>
@@ -10802,11 +10802,11 @@
       <c r="C558" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D558" s="3" t="s">
+      <c r="D558" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559">
         <f t="shared" si="20"/>
         <v>567</v>
@@ -10818,7 +10818,7 @@
       <c r="C559" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D559" s="3" t="s">
+      <c r="D559" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E559" t="s">
@@ -10828,7 +10828,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560">
         <f>A559+2</f>
         <v>569</v>
@@ -10840,11 +10840,11 @@
       <c r="C560" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D560" s="3" t="s">
+      <c r="D560" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561">
         <f t="shared" si="20"/>
         <v>570</v>
@@ -10856,11 +10856,11 @@
       <c r="C561" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D561" s="3" t="s">
+      <c r="D561" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562">
         <f t="shared" si="20"/>
         <v>571</v>
@@ -10872,11 +10872,11 @@
       <c r="C562" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D562" s="3" t="s">
+      <c r="D562" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563">
         <f t="shared" si="20"/>
         <v>572</v>
@@ -10888,11 +10888,11 @@
       <c r="C563" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D563" s="3" t="s">
+      <c r="D563" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564">
         <f t="shared" si="20"/>
         <v>573</v>
@@ -10904,11 +10904,11 @@
       <c r="C564" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D564" s="3" t="s">
+      <c r="D564" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565">
         <f t="shared" si="20"/>
         <v>574</v>
@@ -10920,11 +10920,11 @@
       <c r="C565" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D565" s="3" t="s">
+      <c r="D565" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566">
         <f t="shared" si="20"/>
         <v>575</v>
@@ -10936,11 +10936,11 @@
       <c r="C566" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D566" s="3" t="s">
+      <c r="D566" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567">
         <f t="shared" si="20"/>
         <v>576</v>
@@ -10952,11 +10952,11 @@
       <c r="C567" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D567" s="3" t="s">
+      <c r="D567" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568">
         <f t="shared" si="20"/>
         <v>577</v>
@@ -10968,11 +10968,11 @@
       <c r="C568" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D568" s="3" t="s">
+      <c r="D568" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569">
         <f t="shared" si="20"/>
         <v>578</v>
@@ -10984,11 +10984,11 @@
       <c r="C569" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D569" s="3" t="s">
+      <c r="D569" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570">
         <f t="shared" si="20"/>
         <v>579</v>
@@ -11000,11 +11000,11 @@
       <c r="C570" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D570" s="3" t="s">
+      <c r="D570" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571">
         <f t="shared" si="20"/>
         <v>580</v>
@@ -11016,11 +11016,11 @@
       <c r="C571" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D571" s="3" t="s">
+      <c r="D571" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572">
         <f t="shared" si="20"/>
         <v>581</v>
@@ -11032,11 +11032,11 @@
       <c r="C572" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D572" s="3" t="s">
+      <c r="D572" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573">
         <f t="shared" si="20"/>
         <v>582</v>
@@ -11048,11 +11048,11 @@
       <c r="C573" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D573" s="3" t="s">
+      <c r="D573" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574">
         <f t="shared" si="20"/>
         <v>583</v>
@@ -11064,11 +11064,11 @@
       <c r="C574" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D574" s="3" t="s">
+      <c r="D574" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575">
         <f t="shared" si="20"/>
         <v>584</v>
@@ -11080,11 +11080,11 @@
       <c r="C575" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D575" s="3" t="s">
+      <c r="D575" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576">
         <f t="shared" si="20"/>
         <v>585</v>
@@ -11096,11 +11096,11 @@
       <c r="C576" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D576" s="3" t="s">
+      <c r="D576" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577">
         <f t="shared" si="20"/>
         <v>586</v>
@@ -11112,14 +11112,14 @@
       <c r="C577" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D577" s="3" t="s">
+      <c r="D577" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E577" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578">
         <f t="shared" si="20"/>
         <v>587</v>
@@ -11131,11 +11131,11 @@
       <c r="C578" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D578" s="3" t="s">
+      <c r="D578" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579">
         <f t="shared" si="20"/>
         <v>588</v>
@@ -11147,7 +11147,7 @@
       <c r="C579" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D579" s="3" t="s">
+      <c r="D579" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E579" t="s">
@@ -11157,7 +11157,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580">
         <f>A579+2</f>
         <v>590</v>
@@ -11169,13 +11169,13 @@
       <c r="C580" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D580" s="3" t="s">
+      <c r="D580" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581">
-        <f t="shared" ref="A580:A643" si="22">A580+1</f>
+        <f t="shared" ref="A581:A643" si="22">A580+1</f>
         <v>591</v>
       </c>
       <c r="B581">
@@ -11185,11 +11185,11 @@
       <c r="C581" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D581" s="3" t="s">
+      <c r="D581" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582">
         <f t="shared" si="22"/>
         <v>592</v>
@@ -11201,11 +11201,11 @@
       <c r="C582" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D582" s="3" t="s">
+      <c r="D582" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583">
         <f t="shared" si="22"/>
         <v>593</v>
@@ -11217,11 +11217,11 @@
       <c r="C583" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D583" s="3" t="s">
+      <c r="D583" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584">
         <f t="shared" si="22"/>
         <v>594</v>
@@ -11233,11 +11233,11 @@
       <c r="C584" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D584" s="3" t="s">
+      <c r="D584" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585">
         <f t="shared" si="22"/>
         <v>595</v>
@@ -11249,11 +11249,11 @@
       <c r="C585" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D585" s="3" t="s">
+      <c r="D585" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586">
         <f t="shared" si="22"/>
         <v>596</v>
@@ -11265,11 +11265,11 @@
       <c r="C586" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D586" s="3" t="s">
+      <c r="D586" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587">
         <f t="shared" si="22"/>
         <v>597</v>
@@ -11281,11 +11281,11 @@
       <c r="C587" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D587" s="3" t="s">
+      <c r="D587" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588">
         <f t="shared" si="22"/>
         <v>598</v>
@@ -11297,11 +11297,11 @@
       <c r="C588" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D588" s="3" t="s">
+      <c r="D588" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589">
         <f t="shared" si="22"/>
         <v>599</v>
@@ -11313,11 +11313,11 @@
       <c r="C589" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D589" s="3" t="s">
+      <c r="D589" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590">
         <f t="shared" si="22"/>
         <v>600</v>
@@ -11329,11 +11329,11 @@
       <c r="C590" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D590" s="3" t="s">
+      <c r="D590" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591">
         <f t="shared" si="22"/>
         <v>601</v>
@@ -11345,11 +11345,11 @@
       <c r="C591" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D591" s="3" t="s">
+      <c r="D591" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592">
         <f t="shared" si="22"/>
         <v>602</v>
@@ -11361,11 +11361,11 @@
       <c r="C592" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D592" s="3" t="s">
+      <c r="D592" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593">
         <f t="shared" si="22"/>
         <v>603</v>
@@ -11377,11 +11377,11 @@
       <c r="C593" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D593" s="3" t="s">
+      <c r="D593" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594">
         <f t="shared" si="22"/>
         <v>604</v>
@@ -11393,11 +11393,11 @@
       <c r="C594" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D594" s="3" t="s">
+      <c r="D594" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595">
         <f t="shared" si="22"/>
         <v>605</v>
@@ -11409,11 +11409,11 @@
       <c r="C595" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D595" s="3" t="s">
+      <c r="D595" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596">
         <f t="shared" si="22"/>
         <v>606</v>
@@ -11425,11 +11425,11 @@
       <c r="C596" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D596" s="3" t="s">
+      <c r="D596" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597">
         <f t="shared" si="22"/>
         <v>607</v>
@@ -11441,14 +11441,14 @@
       <c r="C597" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D597" s="3" t="s">
+      <c r="D597" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E597" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598">
         <f t="shared" si="22"/>
         <v>608</v>
@@ -11460,11 +11460,11 @@
       <c r="C598" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D598" s="3" t="s">
+      <c r="D598" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599">
         <f t="shared" si="22"/>
         <v>609</v>
@@ -11476,11 +11476,11 @@
       <c r="C599" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D599" s="3" t="s">
+      <c r="D599" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600">
         <f>A599+2</f>
         <v>611</v>
@@ -11492,11 +11492,11 @@
       <c r="C600" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D600" s="3" t="s">
+      <c r="D600" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601">
         <f t="shared" si="22"/>
         <v>612</v>
@@ -11508,11 +11508,11 @@
       <c r="C601" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D601" s="3" t="s">
+      <c r="D601" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602">
         <f t="shared" si="22"/>
         <v>613</v>
@@ -11524,11 +11524,11 @@
       <c r="C602" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D602" s="3" t="s">
+      <c r="D602" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603">
         <f t="shared" si="22"/>
         <v>614</v>
@@ -11540,11 +11540,11 @@
       <c r="C603" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D603" s="3" t="s">
+      <c r="D603" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604">
         <f t="shared" si="22"/>
         <v>615</v>
@@ -11556,11 +11556,11 @@
       <c r="C604" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D604" s="3" t="s">
+      <c r="D604" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605">
         <f t="shared" si="22"/>
         <v>616</v>
@@ -11572,11 +11572,11 @@
       <c r="C605" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D605" s="3" t="s">
+      <c r="D605" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606">
         <f>A605+2</f>
         <v>618</v>
@@ -11588,11 +11588,11 @@
       <c r="C606" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D606" s="3" t="s">
+      <c r="D606" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B607">
         <f t="shared" si="23"/>
         <v>603</v>
@@ -11600,11 +11600,11 @@
       <c r="C607" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D607" s="3" t="s">
+      <c r="D607" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608">
         <f>A606+1</f>
         <v>619</v>
@@ -11616,11 +11616,11 @@
       <c r="C608" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D608" s="3" t="s">
+      <c r="D608" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="609" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B609">
         <f t="shared" si="23"/>
         <v>605</v>
@@ -11629,7 +11629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="610" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B610">
         <f t="shared" si="23"/>
         <v>606</v>
@@ -11638,7 +11638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="611" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611">
         <f>A608+1</f>
         <v>620</v>
@@ -11650,7 +11650,7 @@
       <c r="C611" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D611" s="3" t="s">
+      <c r="D611" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E611" t="s">
@@ -11671,7 +11671,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612">
         <f>A611+2</f>
         <v>622</v>
@@ -11683,11 +11683,11 @@
       <c r="C612" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D612" s="3" t="s">
+      <c r="D612" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="613" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613">
         <f t="shared" si="22"/>
         <v>623</v>
@@ -11699,11 +11699,11 @@
       <c r="C613" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D613" s="3" t="s">
+      <c r="D613" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="614" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614">
         <f t="shared" si="22"/>
         <v>624</v>
@@ -11715,11 +11715,11 @@
       <c r="C614" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D614" s="3" t="s">
+      <c r="D614" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="615" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615">
         <f t="shared" si="22"/>
         <v>625</v>
@@ -11731,11 +11731,11 @@
       <c r="C615" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D615" s="3" t="s">
+      <c r="D615" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616">
         <f t="shared" si="22"/>
         <v>626</v>
@@ -11747,11 +11747,11 @@
       <c r="C616" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D616" s="3" t="s">
+      <c r="D616" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="617" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617">
         <f t="shared" si="22"/>
         <v>627</v>
@@ -11763,11 +11763,11 @@
       <c r="C617" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D617" s="3" t="s">
+      <c r="D617" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618">
         <f t="shared" si="22"/>
         <v>628</v>
@@ -11779,11 +11779,11 @@
       <c r="C618" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D618" s="3" t="s">
+      <c r="D618" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="619" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619">
         <f t="shared" si="22"/>
         <v>629</v>
@@ -11795,11 +11795,11 @@
       <c r="C619" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D619" s="3" t="s">
+      <c r="D619" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="620" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620">
         <f t="shared" si="22"/>
         <v>630</v>
@@ -11811,11 +11811,11 @@
       <c r="C620" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D620" s="3" t="s">
+      <c r="D620" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="621" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621">
         <f t="shared" si="22"/>
         <v>631</v>
@@ -11827,11 +11827,11 @@
       <c r="C621" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D621" s="3" t="s">
+      <c r="D621" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="622" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622">
         <f t="shared" si="22"/>
         <v>632</v>
@@ -11843,11 +11843,11 @@
       <c r="C622" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D622" s="3" t="s">
+      <c r="D622" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="623" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623">
         <f t="shared" si="22"/>
         <v>633</v>
@@ -11859,11 +11859,11 @@
       <c r="C623" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D623" s="3" t="s">
+      <c r="D623" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="624" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624">
         <f t="shared" si="22"/>
         <v>634</v>
@@ -11875,11 +11875,11 @@
       <c r="C624" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D624" s="3" t="s">
+      <c r="D624" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625">
         <f t="shared" si="22"/>
         <v>635</v>
@@ -11891,11 +11891,11 @@
       <c r="C625" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D625" s="3" t="s">
+      <c r="D625" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626">
         <f t="shared" si="22"/>
         <v>636</v>
@@ -11907,11 +11907,11 @@
       <c r="C626" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D626" s="3" t="s">
+      <c r="D626" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627">
         <f t="shared" si="22"/>
         <v>637</v>
@@ -11923,11 +11923,11 @@
       <c r="C627" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D627" s="3" t="s">
+      <c r="D627" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628">
         <f t="shared" si="22"/>
         <v>638</v>
@@ -11939,11 +11939,11 @@
       <c r="C628" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D628" s="3" t="s">
+      <c r="D628" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629">
         <f t="shared" si="22"/>
         <v>639</v>
@@ -11955,14 +11955,14 @@
       <c r="C629" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D629" s="3" t="s">
+      <c r="D629" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E629" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630">
         <f t="shared" si="22"/>
         <v>640</v>
@@ -11974,11 +11974,11 @@
       <c r="C630" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D630" s="3" t="s">
+      <c r="D630" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631">
         <f t="shared" si="22"/>
         <v>641</v>
@@ -11990,11 +11990,11 @@
       <c r="C631" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D631" s="3" t="s">
+      <c r="D631" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632">
         <f t="shared" si="22"/>
         <v>642</v>
@@ -12006,11 +12006,11 @@
       <c r="C632" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D632" s="3" t="s">
+      <c r="D632" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633">
         <f>A632+3</f>
         <v>645</v>
@@ -12022,7 +12022,7 @@
       <c r="C633" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D633" s="3" t="s">
+      <c r="D633" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E633" t="s">
@@ -12036,7 +12036,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634">
         <f t="shared" si="22"/>
         <v>646</v>
@@ -12048,11 +12048,11 @@
       <c r="C634" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D634" s="3" t="s">
+      <c r="D634" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635">
         <f t="shared" si="22"/>
         <v>647</v>
@@ -12064,11 +12064,11 @@
       <c r="C635" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D635" s="3" t="s">
+      <c r="D635" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="636" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636">
         <f t="shared" si="22"/>
         <v>648</v>
@@ -12080,11 +12080,11 @@
       <c r="C636" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D636" s="3" t="s">
+      <c r="D636" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637">
         <f t="shared" si="22"/>
         <v>649</v>
@@ -12096,11 +12096,11 @@
       <c r="C637" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D637" s="3" t="s">
+      <c r="D637" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638">
         <f t="shared" si="22"/>
         <v>650</v>
@@ -12112,11 +12112,11 @@
       <c r="C638" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D638" s="3" t="s">
+      <c r="D638" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639">
         <f t="shared" si="22"/>
         <v>651</v>
@@ -12128,11 +12128,11 @@
       <c r="C639" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D639" s="3" t="s">
+      <c r="D639" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640">
         <f t="shared" si="22"/>
         <v>652</v>
@@ -12144,11 +12144,11 @@
       <c r="C640" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D640" s="3" t="s">
+      <c r="D640" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641">
         <f t="shared" si="22"/>
         <v>653</v>
@@ -12160,11 +12160,11 @@
       <c r="C641" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D641" s="3" t="s">
+      <c r="D641" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642">
         <f t="shared" si="22"/>
         <v>654</v>
@@ -12176,11 +12176,11 @@
       <c r="C642" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D642" s="3" t="s">
+      <c r="D642" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643">
         <f t="shared" si="22"/>
         <v>655</v>
@@ -12192,11 +12192,11 @@
       <c r="C643" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D643" s="3" t="s">
+      <c r="D643" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644">
         <f t="shared" ref="A644:A650" si="24">A643+1</f>
         <v>656</v>
@@ -12208,11 +12208,11 @@
       <c r="C644" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D644" s="3" t="s">
+      <c r="D644" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645">
         <f t="shared" si="24"/>
         <v>657</v>
@@ -12224,11 +12224,11 @@
       <c r="C645" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D645" s="3" t="s">
+      <c r="D645" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646">
         <f t="shared" si="24"/>
         <v>658</v>
@@ -12240,11 +12240,11 @@
       <c r="C646" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D646" s="3" t="s">
+      <c r="D646" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647">
         <f t="shared" si="24"/>
         <v>659</v>
@@ -12256,11 +12256,11 @@
       <c r="C647" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D647" s="3" t="s">
+      <c r="D647" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648">
         <f t="shared" si="24"/>
         <v>660</v>
@@ -12272,11 +12272,11 @@
       <c r="C648" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D648" s="3" t="s">
+      <c r="D648" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649">
         <f t="shared" si="24"/>
         <v>661</v>
@@ -12288,11 +12288,11 @@
       <c r="C649" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D649" s="3" t="s">
+      <c r="D649" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650">
         <f t="shared" si="24"/>
         <v>662</v>
@@ -12304,15 +12304,15 @@
       <c r="C650" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D650" s="3" t="s">
+      <c r="D650" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C651" t="s">
         <v>242</v>
       </c>
-      <c r="D651" s="3"/>
+      <c r="D651" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prog/asm_bench_global.xlsx
+++ b/prog/asm_bench_global.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gael\Documents\Phelma\Miniprojet_RISC_V\prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C994B7E-93F8-40E2-8B71-9FD8B2FCFE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B4F2E-467D-4521-B764-9C25278E2373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{2CCC6636-DFC2-44F3-972F-BAEB4E90E7D9}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="255">
   <si>
     <t>Clock</t>
   </si>
@@ -224,9 +224,6 @@
     <t>'11111101100001000010011100000011</t>
   </si>
   <si>
-    <t>'00000000000000001110011100110111</t>
-  </si>
-  <si>
     <t>'00000000000000000000011100010111</t>
   </si>
   <si>
@@ -560,12 +557,6 @@
     <t>DEBUT ADD DEBORDEMENT</t>
   </si>
   <si>
-    <t>DEBUT INIT VALEURS</t>
-  </si>
-  <si>
-    <t>CONDITION SUR LES VALEURS</t>
-  </si>
-  <si>
     <t>DEBUT AND</t>
   </si>
   <si>
@@ -731,9 +722,6 @@
     <t>'11111110111101000001001100100011</t>
   </si>
   <si>
-    <t>'11111111111010000110100010010011</t>
-  </si>
-  <si>
     <t>'11111101000001000010110000100011</t>
   </si>
   <si>
@@ -752,24 +740,12 @@
     <t>'11111110000001000010010000100011</t>
   </si>
   <si>
-    <t>'00000001110000000000001101101111</t>
-  </si>
-  <si>
     <t>'11111110111101000010010000100011</t>
   </si>
   <si>
-    <t>'11111111000001111100000011100011</t>
-  </si>
-  <si>
     <t>'11111100011001000010110000100011</t>
   </si>
   <si>
-    <t>'00000000100001111000011101100111</t>
-  </si>
-  <si>
-    <t>'01011110000011111111001101101111</t>
-  </si>
-  <si>
     <t>'00000000000000010000000100010011</t>
   </si>
   <si>
@@ -780,6 +756,60 @@
   </si>
   <si>
     <t>sw      s0,48(sp)</t>
+  </si>
+  <si>
+    <t>DEBUT INIT VALEURS, écriture de a</t>
+  </si>
+  <si>
+    <t>CONDITION SUR LES VALEURS, écriture de i</t>
+  </si>
+  <si>
+    <t>écriture de a</t>
+  </si>
+  <si>
+    <t>écriture de b</t>
+  </si>
+  <si>
+    <t>écriture de c</t>
+  </si>
+  <si>
+    <t>écriture de d</t>
+  </si>
+  <si>
+    <t>écriture de e</t>
+  </si>
+  <si>
+    <t>écriture de f</t>
+  </si>
+  <si>
+    <t>écriture de g</t>
+  </si>
+  <si>
+    <t>écriture de h</t>
+  </si>
+  <si>
+    <t>'11111111111110000110100010010011</t>
+  </si>
+  <si>
+    <t>'00000000000000000000001101101111</t>
+  </si>
+  <si>
+    <t>'00000001000001111100000001100011</t>
+  </si>
+  <si>
+    <t>'00000000000001111000011101100111</t>
+  </si>
+  <si>
+    <t>lui     a5,252645135</t>
+  </si>
+  <si>
+    <t>'00001111000011110000011110110111</t>
+  </si>
+  <si>
+    <t>'00000000000000000000011100110111</t>
+  </si>
+  <si>
+    <t>addi    a5,a5,1807</t>
   </si>
 </sst>
 </file>
@@ -821,11 +851,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,7 +1179,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,7 +1197,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1179,19 +1212,19 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>152</v>
       </c>
-      <c r="K1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>153</v>
-      </c>
-      <c r="M1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.4">
@@ -1202,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2">
         <v>48</v>
@@ -1217,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.4">
@@ -1233,13 +1266,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3">
         <f>$J$2+K3</f>
@@ -1269,10 +1302,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J11" si="1">$J$2+K4</f>
@@ -1302,13 +1335,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
@@ -1335,14 +1368,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>239</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
@@ -1372,10 +1408,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
@@ -1402,13 +1441,14 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
@@ -1438,10 +1478,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
@@ -1468,13 +1511,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
@@ -1484,11 +1528,11 @@
         <v>-40</v>
       </c>
       <c r="L10">
-        <v>252645135</v>
+        <v>252644879</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" ref="M10:M11" si="5">DEC2HEX(L10, 8)</f>
-        <v>0F0F0F0F</v>
+        <v>0F0F0E0F</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.4">
@@ -1504,10 +1548,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
@@ -1534,11 +1581,12 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -1553,7 +1601,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.4">
@@ -1566,11 +1617,12 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.4">
       <c r="A15">
@@ -1582,10 +1634,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.4">
@@ -1601,10 +1656,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1614,13 +1672,14 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1629,14 +1688,17 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
+      <c r="C18" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>251</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1649,10 +1711,21 @@
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>254</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="J19">
+        <v>252645135</v>
+      </c>
+      <c r="K19">
+        <v>1807</v>
+      </c>
+      <c r="L19">
+        <f>K19+J19</f>
+        <v>252646942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1662,13 +1735,14 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1678,16 +1752,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1700,10 +1774,10 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1716,13 +1790,13 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1735,10 +1809,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1751,10 +1825,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1767,10 +1841,10 @@
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1783,10 +1857,10 @@
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1796,20 +1870,20 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28">
         <f>CADDR</f>
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H28">
         <f>VALUE1+VALUE2+VALUE3</f>
@@ -1820,7 +1894,7 @@
         <v>0000001E</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1832,13 +1906,13 @@
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1851,10 +1925,10 @@
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1867,10 +1941,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1880,28 +1954,28 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F32">
         <f>IADDR</f>
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H32">
         <f>VALUE8+VALUE7-2^32</f>
-        <v>252645133</v>
+        <v>252644877</v>
       </c>
       <c r="I32" t="str">
         <f>DEC2HEX(H32,8)</f>
-        <v>0F0F0F0D</v>
+        <v>0F0F0E0D</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -1917,7 +1991,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -1930,10 +2004,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -1949,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -1962,10 +2036,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -1981,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -1994,10 +2068,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2013,7 +2087,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2026,10 +2100,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2045,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2058,10 +2132,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2074,10 +2148,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2093,7 +2167,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2106,10 +2180,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2125,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2141,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2154,10 +2228,10 @@
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2170,10 +2244,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2189,10 +2263,10 @@
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2208,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2224,7 +2298,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2237,28 +2311,28 @@
         <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F53">
         <f>IADDR</f>
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H53">
         <f>_xlfn.BITAND(VALUE7,VALUE8)</f>
-        <v>252645134</v>
+        <v>252644878</v>
       </c>
       <c r="I53" t="str">
         <f>DEC2HEX(H53,8)</f>
-        <v>0F0F0F0E</v>
+        <v>0F0F0E0E</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2274,7 +2348,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2287,10 +2361,10 @@
         <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2306,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2319,10 +2393,10 @@
         <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2338,7 +2412,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2351,10 +2425,10 @@
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2370,7 +2444,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2383,10 +2457,10 @@
         <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2402,7 +2476,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2415,10 +2489,10 @@
         <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2431,10 +2505,10 @@
         <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2450,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2463,10 +2537,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2482,7 +2556,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2498,7 +2572,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2511,10 +2585,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2527,10 +2601,10 @@
         <v>68</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2546,10 +2620,10 @@
         <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2565,7 +2639,7 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2581,7 +2655,7 @@
         <v>23</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2594,20 +2668,20 @@
         <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F74">
         <f>FADDR</f>
         <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H74">
         <f>_xlfn.BITAND(ROUND(VALUE4*(2^VALUE5),0),65535)</f>
@@ -2631,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2644,10 +2718,10 @@
         <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2663,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2676,10 +2750,10 @@
         <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2695,7 +2769,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2708,10 +2782,10 @@
         <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2727,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2740,10 +2814,10 @@
         <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2759,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2772,10 +2846,10 @@
         <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2788,10 +2862,10 @@
         <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2807,7 +2881,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2820,10 +2894,10 @@
         <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2839,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2855,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2868,10 +2942,10 @@
         <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2884,10 +2958,10 @@
         <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2903,10 +2977,10 @@
         <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2922,7 +2996,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2938,7 +3012,7 @@
         <v>26</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -2951,20 +3025,20 @@
         <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F95">
         <f>FADDR</f>
         <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H95">
         <f>ROUND(VALUE4/(2^VALUE5),0)</f>
@@ -2987,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3000,10 +3074,10 @@
         <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3019,7 +3093,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3032,10 +3106,10 @@
         <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3051,7 +3125,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3064,10 +3138,10 @@
         <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3083,7 +3157,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3096,10 +3170,10 @@
         <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3115,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3128,10 +3202,10 @@
         <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3144,10 +3218,10 @@
         <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3163,7 +3237,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3176,10 +3250,10 @@
         <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3195,7 +3269,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3211,7 +3285,7 @@
         <v>10</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3224,10 +3298,10 @@
         <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -3240,10 +3314,10 @@
         <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3259,10 +3333,10 @@
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E113" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3278,7 +3352,7 @@
         <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3294,7 +3368,7 @@
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3307,20 +3381,20 @@
         <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F116">
         <f>IADDR</f>
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H116">
         <f>_xlfn.BITOR(VALUE7,VALUE8)</f>
@@ -3344,7 +3418,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3357,10 +3431,10 @@
         <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3376,7 +3450,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3389,10 +3463,10 @@
         <v>118</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3408,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3421,10 +3495,10 @@
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3440,7 +3514,7 @@
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3453,10 +3527,10 @@
         <v>122</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3472,7 +3546,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3485,10 +3559,10 @@
         <v>124</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3501,10 +3575,10 @@
         <v>125</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3520,7 +3594,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3533,10 +3607,10 @@
         <v>127</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3552,7 +3626,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3568,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3581,10 +3655,10 @@
         <v>130</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3597,10 +3671,10 @@
         <v>131</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3616,10 +3690,10 @@
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E134" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3635,7 +3709,7 @@
         <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3651,7 +3725,7 @@
         <v>28</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3664,28 +3738,28 @@
         <v>135</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F137">
         <f>IADDR</f>
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H137">
         <f>_xlfn.BITXOR(VALUE7,VALUE8)</f>
-        <v>4042322161</v>
+        <v>4042322417</v>
       </c>
       <c r="I137" t="str">
         <f>DEC2HEX(H137,8)</f>
-        <v>F0F0F0F1</v>
+        <v>F0F0F1F1</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3701,7 +3775,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3714,10 +3788,10 @@
         <v>137</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3733,7 +3807,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3746,10 +3820,10 @@
         <v>139</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3765,7 +3839,7 @@
         <v>7</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3778,10 +3852,10 @@
         <v>141</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3797,7 +3871,7 @@
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3810,10 +3884,10 @@
         <v>143</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3829,7 +3903,7 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3842,10 +3916,10 @@
         <v>145</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3858,10 +3932,10 @@
         <v>146</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3877,7 +3951,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3890,10 +3964,10 @@
         <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3909,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3925,7 +3999,7 @@
         <v>10</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3938,10 +4012,10 @@
         <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3954,10 +4028,10 @@
         <v>152</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3973,10 +4047,10 @@
         <v>11</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E155" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -3992,7 +4066,7 @@
         <v>29</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4008,7 +4082,7 @@
         <v>30</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4024,7 +4098,7 @@
         <v>31</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4037,20 +4111,20 @@
         <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F159">
         <f>CADDR</f>
         <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H159">
         <f>IF(VALUE1&lt;VALUE2,1,0)</f>
@@ -4074,7 +4148,7 @@
         <v>32</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4090,7 +4164,7 @@
         <v>33</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4106,7 +4180,7 @@
         <v>30</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4122,7 +4196,7 @@
         <v>31</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4135,20 +4209,20 @@
         <v>162</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F164">
         <f>FADDR</f>
         <v>16</v>
       </c>
       <c r="G164" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H164">
         <f>IF(VALUE4&lt;VALUE5,1,0)</f>
@@ -4172,7 +4246,7 @@
         <v>5</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4185,10 +4259,10 @@
         <v>164</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4204,7 +4278,7 @@
         <v>6</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4217,10 +4291,10 @@
         <v>166</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4236,7 +4310,7 @@
         <v>7</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4249,10 +4323,10 @@
         <v>168</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4268,7 +4342,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4281,10 +4355,10 @@
         <v>170</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4300,7 +4374,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4313,10 +4387,10 @@
         <v>172</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4329,10 +4403,10 @@
         <v>173</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4348,7 +4422,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4361,10 +4435,10 @@
         <v>175</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4380,7 +4454,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4396,7 +4470,7 @@
         <v>10</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4409,10 +4483,10 @@
         <v>178</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4425,10 +4499,10 @@
         <v>179</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4444,10 +4518,10 @@
         <v>34</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E182" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4463,7 +4537,7 @@
         <v>35</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4479,7 +4553,7 @@
         <v>36</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4495,7 +4569,7 @@
         <v>31</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4508,20 +4582,20 @@
         <v>184</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E186" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F186">
         <f>CADDR</f>
         <v>22</v>
       </c>
       <c r="G186" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H186">
         <f>IF(VALUE1&lt;VALUE2,1,0)</f>
@@ -4545,7 +4619,7 @@
         <v>37</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4561,7 +4635,7 @@
         <v>38</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4574,10 +4648,10 @@
         <v>187</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4593,7 +4667,7 @@
         <v>31</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4606,20 +4680,20 @@
         <v>189</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E191" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F191">
         <f>FADDR</f>
         <v>16</v>
       </c>
       <c r="G191" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H191">
         <f>IF(VALUE4&lt;VALUE5,1,0)</f>
@@ -4642,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4655,10 +4729,10 @@
         <v>191</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4674,7 +4748,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4687,10 +4761,10 @@
         <v>193</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4706,7 +4780,7 @@
         <v>7</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4719,10 +4793,10 @@
         <v>195</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4738,7 +4812,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4751,10 +4825,10 @@
         <v>197</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4770,7 +4844,7 @@
         <v>6</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4783,10 +4857,10 @@
         <v>199</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4799,10 +4873,10 @@
         <v>200</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4818,7 +4892,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4831,10 +4905,10 @@
         <v>202</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4850,7 +4924,7 @@
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4866,7 +4940,7 @@
         <v>10</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4879,10 +4953,10 @@
         <v>205</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -4895,10 +4969,10 @@
         <v>206</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4914,10 +4988,10 @@
         <v>21</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E209" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4933,7 +5007,7 @@
         <v>22</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4949,7 +5023,7 @@
         <v>39</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -4962,20 +5036,20 @@
         <v>210</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E212" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F212">
         <f>FADDR</f>
         <v>16</v>
       </c>
       <c r="G212" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H212">
         <f>ROUND(VALUE4/(2^VALUE5),0)</f>
@@ -4999,7 +5073,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5012,10 +5086,10 @@
         <v>212</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5031,7 +5105,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5044,10 +5118,10 @@
         <v>214</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5063,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5076,10 +5150,10 @@
         <v>216</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5095,7 +5169,7 @@
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5108,10 +5182,10 @@
         <v>218</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5127,7 +5201,7 @@
         <v>6</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5140,10 +5214,10 @@
         <v>220</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5156,10 +5230,10 @@
         <v>221</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5175,7 +5249,7 @@
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5188,10 +5262,10 @@
         <v>223</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5207,7 +5281,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5223,7 +5297,7 @@
         <v>10</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5236,10 +5310,10 @@
         <v>226</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5252,10 +5326,10 @@
         <v>227</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5268,13 +5342,13 @@
         <v>228</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E230" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5290,7 +5364,7 @@
         <v>42</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5306,7 +5380,7 @@
         <v>40</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5319,20 +5393,20 @@
         <v>231</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E233" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F233">
         <f>CADDR</f>
         <v>22</v>
       </c>
       <c r="G233" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H233">
         <f>VALUE2-VALUE1</f>
@@ -5356,7 +5430,7 @@
         <v>32</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5372,7 +5446,7 @@
         <v>33</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5388,7 +5462,7 @@
         <v>40</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5401,20 +5475,20 @@
         <v>235</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E237" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F237">
         <f>FADDR</f>
         <v>16</v>
       </c>
       <c r="G237" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H237">
         <f>VALUE5-VALUE4</f>
@@ -5438,7 +5512,7 @@
         <v>5</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5451,10 +5525,10 @@
         <v>237</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5470,7 +5544,7 @@
         <v>6</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5483,10 +5557,10 @@
         <v>239</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5502,7 +5576,7 @@
         <v>7</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5515,10 +5589,10 @@
         <v>241</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5534,7 +5608,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5547,10 +5621,10 @@
         <v>243</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5566,7 +5640,7 @@
         <v>6</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5579,10 +5653,10 @@
         <v>245</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5595,10 +5669,10 @@
         <v>246</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5614,7 +5688,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5627,10 +5701,10 @@
         <v>248</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5646,7 +5720,7 @@
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5662,7 +5736,7 @@
         <v>10</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5675,10 +5749,10 @@
         <v>251</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5691,10 +5765,10 @@
         <v>252</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5710,10 +5784,10 @@
         <v>33</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E255" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -5729,7 +5803,7 @@
         <v>41</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5742,20 +5816,20 @@
         <v>255</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E257" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F257">
         <f>FADDR</f>
         <v>16</v>
       </c>
       <c r="G257" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H257">
         <f>_xlfn.BITAND(ROUND(VALUE4*(2^5),0),65535)</f>
@@ -5779,7 +5853,7 @@
         <v>42</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5795,7 +5869,7 @@
         <v>41</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5808,20 +5882,20 @@
         <v>258</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E260" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F260">
         <f>CADDR</f>
         <v>22</v>
       </c>
       <c r="G260" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H260">
         <f>_xlfn.BITAND(ROUND(VALUE1*(2^5),0),255)</f>
@@ -5845,7 +5919,7 @@
         <v>5</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5858,10 +5932,10 @@
         <v>260</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5877,7 +5951,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5890,10 +5964,10 @@
         <v>262</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5909,7 +5983,7 @@
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5922,10 +5996,10 @@
         <v>264</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5941,7 +6015,7 @@
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5954,10 +6028,10 @@
         <v>266</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5973,7 +6047,7 @@
         <v>6</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -5986,10 +6060,10 @@
         <v>268</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6002,10 +6076,10 @@
         <v>269</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6021,7 +6095,7 @@
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6034,10 +6108,10 @@
         <v>271</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6053,7 +6127,7 @@
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6069,7 +6143,7 @@
         <v>10</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6082,10 +6156,10 @@
         <v>274</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6098,10 +6172,10 @@
         <v>275</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6117,10 +6191,10 @@
         <v>33</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E278" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6136,7 +6210,7 @@
         <v>43</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6149,20 +6223,20 @@
         <v>278</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E280" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F280">
         <f>FADDR</f>
         <v>16</v>
       </c>
       <c r="G280" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H280">
         <f>_xlfn.BITAND(ROUND(VALUE4/(2^16),0),65535)</f>
@@ -6185,7 +6259,7 @@
         <v>42</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6198,10 +6272,10 @@
         <v>280</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6214,20 +6288,20 @@
         <v>281</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E283" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F283">
         <f>CADDR</f>
         <v>22</v>
       </c>
       <c r="G283" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H283">
         <f>_xlfn.BITAND(ROUND(VALUE4/(2^5),0),255)</f>
@@ -6251,7 +6325,7 @@
         <v>5</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6264,10 +6338,10 @@
         <v>283</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6283,7 +6357,7 @@
         <v>6</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6296,10 +6370,10 @@
         <v>285</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6315,7 +6389,7 @@
         <v>7</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6328,10 +6402,10 @@
         <v>287</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6347,7 +6421,7 @@
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6360,10 +6434,10 @@
         <v>289</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6379,7 +6453,7 @@
         <v>6</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6392,10 +6466,10 @@
         <v>291</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6408,10 +6482,10 @@
         <v>292</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6427,7 +6501,7 @@
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6440,10 +6514,10 @@
         <v>294</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6459,7 +6533,7 @@
         <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6475,7 +6549,7 @@
         <v>10</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6488,10 +6562,10 @@
         <v>297</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6504,10 +6578,10 @@
         <v>298</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6523,10 +6597,10 @@
         <v>44</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E301" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6542,7 +6616,7 @@
         <v>45</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6558,7 +6632,7 @@
         <v>46</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -6571,10 +6645,10 @@
         <v>302</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6587,28 +6661,28 @@
         <v>303</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E305" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F305">
         <f>IADDR</f>
         <v>4</v>
       </c>
       <c r="G305" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H305">
         <f>_xlfn.BITOR(VALUE9,VALUE8)</f>
-        <v>252645135</v>
+        <v>252644879</v>
       </c>
       <c r="I305" t="str">
         <f>DEC2HEX(H305,8)</f>
-        <v>0F0F0F0F</v>
+        <v>0F0F0E0F</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6621,20 +6695,20 @@
         <v>304</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E306" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F306">
         <f>HADDR</f>
         <v>8</v>
       </c>
       <c r="G306" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H306">
         <f>_xlfn.BITOR(H305,VALUE7)</f>
@@ -6657,7 +6731,7 @@
         <v>5</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6670,10 +6744,10 @@
         <v>306</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6689,7 +6763,7 @@
         <v>6</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6702,10 +6776,10 @@
         <v>308</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6721,7 +6795,7 @@
         <v>7</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6734,10 +6808,10 @@
         <v>310</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6753,7 +6827,7 @@
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6766,10 +6840,10 @@
         <v>312</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6785,7 +6859,7 @@
         <v>6</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6798,10 +6872,10 @@
         <v>314</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6814,10 +6888,10 @@
         <v>315</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6833,7 +6907,7 @@
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6846,10 +6920,10 @@
         <v>317</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6865,7 +6939,7 @@
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6881,7 +6955,7 @@
         <v>10</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6894,10 +6968,10 @@
         <v>320</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6910,10 +6984,10 @@
         <v>321</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6929,10 +7003,10 @@
         <v>17</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E324" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6948,7 +7022,7 @@
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6964,7 +7038,7 @@
         <v>10</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6980,7 +7054,7 @@
         <v>28</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -6993,28 +7067,28 @@
         <v>326</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E328" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F328">
         <f>IADDR</f>
         <v>4</v>
       </c>
       <c r="G328" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H328">
         <f>_xlfn.BITXOR(VALUE7,VALUE8)</f>
-        <v>4042322161</v>
+        <v>4042322417</v>
       </c>
       <c r="I328" t="str">
         <f>DEC2HEX(H328,8)</f>
-        <v>F0F0F0F1</v>
+        <v>F0F0F1F1</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7030,7 +7104,7 @@
         <v>44</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7046,7 +7120,7 @@
         <v>47</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7059,10 +7133,10 @@
         <v>329</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7077,7 +7151,7 @@
         <v>5</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7090,10 +7164,10 @@
         <v>331</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7109,7 +7183,7 @@
         <v>6</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7122,10 +7196,10 @@
         <v>333</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7141,7 +7215,7 @@
         <v>7</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7154,10 +7228,10 @@
         <v>335</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7173,7 +7247,7 @@
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7186,10 +7260,10 @@
         <v>337</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7205,7 +7279,7 @@
         <v>6</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7218,10 +7292,10 @@
         <v>339</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7234,10 +7308,10 @@
         <v>340</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7253,7 +7327,7 @@
         <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7266,10 +7340,10 @@
         <v>342</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7285,7 +7359,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7301,7 +7375,7 @@
         <v>10</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7314,10 +7388,10 @@
         <v>345</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7330,10 +7404,10 @@
         <v>346</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7349,10 +7423,10 @@
         <v>42</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E349" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="350" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7368,7 +7442,7 @@
         <v>48</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7384,7 +7458,7 @@
         <v>31</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7397,20 +7471,20 @@
         <v>350</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E352" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F352">
         <f>CADDR</f>
         <v>22</v>
       </c>
       <c r="G352" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H352">
         <f>IF(VALUE1&lt;VALUE2,1,0)</f>
@@ -7434,7 +7508,7 @@
         <v>21</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7447,10 +7521,10 @@
         <v>352</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7466,7 +7540,7 @@
         <v>31</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7479,20 +7553,20 @@
         <v>354</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E356" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F356">
         <f>FADDR</f>
         <v>16</v>
       </c>
       <c r="G356" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H356">
         <f>IF(VALUE4&lt;VALUE5,1,0)</f>
@@ -7515,7 +7589,7 @@
         <v>5</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7528,10 +7602,10 @@
         <v>356</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7547,7 +7621,7 @@
         <v>6</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7560,10 +7634,10 @@
         <v>358</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="361" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7579,7 +7653,7 @@
         <v>7</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7592,10 +7666,10 @@
         <v>360</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7611,7 +7685,7 @@
         <v>8</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7624,10 +7698,10 @@
         <v>362</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7643,7 +7717,7 @@
         <v>6</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7656,10 +7730,10 @@
         <v>364</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7672,10 +7746,10 @@
         <v>365</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="368" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7691,7 +7765,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7704,10 +7778,10 @@
         <v>367</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7723,7 +7797,7 @@
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7739,7 +7813,7 @@
         <v>10</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7752,10 +7826,10 @@
         <v>370</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="373" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7768,10 +7842,10 @@
         <v>371</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7787,10 +7861,10 @@
         <v>34</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E374" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7806,7 +7880,7 @@
         <v>49</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7822,7 +7896,7 @@
         <v>31</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7835,20 +7909,20 @@
         <v>375</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E377" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F377">
         <f>CADDR</f>
         <v>22</v>
       </c>
       <c r="G377" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H377">
         <f>IF(VALUE1&lt;VALUE2,1,0)</f>
@@ -7868,10 +7942,10 @@
         <v>376</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7887,7 +7961,7 @@
         <v>49</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7903,7 +7977,7 @@
         <v>31</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7916,20 +7990,20 @@
         <v>379</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E381" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F381">
         <f>FADDR</f>
         <v>16</v>
       </c>
       <c r="G381" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H381">
         <f>IF(VALUE4&lt;VALUE5,1,0)</f>
@@ -7952,7 +8026,7 @@
         <v>5</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7965,10 +8039,10 @@
         <v>381</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -7984,7 +8058,7 @@
         <v>6</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -7997,10 +8071,10 @@
         <v>383</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8016,7 +8090,7 @@
         <v>7</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8029,10 +8103,10 @@
         <v>385</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8048,7 +8122,7 @@
         <v>8</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8061,10 +8135,10 @@
         <v>387</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8080,7 +8154,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8093,10 +8167,10 @@
         <v>389</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8109,10 +8183,10 @@
         <v>390</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8128,7 +8202,7 @@
         <v>8</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8141,10 +8215,10 @@
         <v>392</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8160,7 +8234,7 @@
         <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8176,7 +8250,7 @@
         <v>10</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8189,10 +8263,10 @@
         <v>395</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8205,10 +8279,10 @@
         <v>396</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8224,7 +8298,7 @@
         <v>50</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8237,10 +8311,10 @@
         <v>398</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8253,10 +8327,10 @@
         <v>399</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8271,7 +8345,7 @@
         <v>5</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8284,10 +8358,10 @@
         <v>401</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8303,7 +8377,7 @@
         <v>6</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8316,10 +8390,10 @@
         <v>403</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8335,7 +8409,7 @@
         <v>7</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8348,10 +8422,10 @@
         <v>405</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8367,7 +8441,7 @@
         <v>8</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8380,10 +8454,10 @@
         <v>407</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8399,7 +8473,7 @@
         <v>6</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8412,10 +8486,10 @@
         <v>409</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8428,10 +8502,10 @@
         <v>410</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8447,7 +8521,7 @@
         <v>8</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8460,10 +8534,10 @@
         <v>412</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8479,7 +8553,7 @@
         <v>9</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -8495,7 +8569,7 @@
         <v>10</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8508,10 +8582,10 @@
         <v>415</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8524,10 +8598,10 @@
         <v>416</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8543,10 +8617,10 @@
         <v>11</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E419" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8562,7 +8636,7 @@
         <v>5</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8578,7 +8652,7 @@
         <v>51</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8609,10 +8683,10 @@
         <v>422</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D424" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="425" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8627,17 +8701,17 @@
         <v>5</v>
       </c>
       <c r="D425" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E425" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F425">
         <f>AADDR</f>
         <v>31</v>
       </c>
       <c r="G425" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H425">
         <f>VALUE1</f>
@@ -8658,10 +8732,10 @@
         <v>424</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D426" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="427" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8677,7 +8751,7 @@
         <v>6</v>
       </c>
       <c r="D427" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8690,10 +8764,10 @@
         <v>426</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8709,7 +8783,7 @@
         <v>7</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="430" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8722,10 +8796,10 @@
         <v>428</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="431" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8741,7 +8815,7 @@
         <v>8</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8754,10 +8828,10 @@
         <v>430</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8773,7 +8847,7 @@
         <v>6</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8786,10 +8860,10 @@
         <v>432</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8802,10 +8876,10 @@
         <v>433</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8821,7 +8895,7 @@
         <v>8</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8834,10 +8908,10 @@
         <v>435</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8853,7 +8927,7 @@
         <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8869,7 +8943,7 @@
         <v>10</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8882,10 +8956,10 @@
         <v>438</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="441" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8898,10 +8972,10 @@
         <v>439</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="442" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8917,10 +8991,10 @@
         <v>11</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E442" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8936,7 +9010,7 @@
         <v>5</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="444" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8952,7 +9026,7 @@
         <v>53</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="445" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -8983,10 +9057,10 @@
         <v>445</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9001,17 +9075,17 @@
         <v>5</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E448" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F448">
         <f>AADDR</f>
         <v>31</v>
       </c>
       <c r="G448" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H448">
         <v>0</v>
@@ -9031,10 +9105,10 @@
         <v>447</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9050,7 +9124,7 @@
         <v>6</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9063,10 +9137,10 @@
         <v>449</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D451" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9082,7 +9156,7 @@
         <v>7</v>
       </c>
       <c r="D452" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9095,10 +9169,10 @@
         <v>451</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9114,7 +9188,7 @@
         <v>8</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9127,10 +9201,10 @@
         <v>453</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9146,7 +9220,7 @@
         <v>6</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9159,10 +9233,10 @@
         <v>455</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9175,10 +9249,10 @@
         <v>456</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9194,7 +9268,7 @@
         <v>8</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9207,10 +9281,10 @@
         <v>458</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9226,7 +9300,7 @@
         <v>9</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9242,7 +9316,7 @@
         <v>10</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9255,10 +9329,10 @@
         <v>461</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -9271,10 +9345,10 @@
         <v>462</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9290,10 +9364,10 @@
         <v>11</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E465" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="466" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9309,7 +9383,7 @@
         <v>6</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="467" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9325,7 +9399,7 @@
         <v>54</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="468" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9356,10 +9430,10 @@
         <v>468</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="471" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9374,17 +9448,17 @@
         <v>5</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E471" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F471">
         <f>AADDR</f>
         <v>31</v>
       </c>
       <c r="G471" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H471">
         <f>VALUE1</f>
@@ -9405,10 +9479,10 @@
         <v>470</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="473" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9424,7 +9498,7 @@
         <v>6</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="474" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9437,10 +9511,10 @@
         <v>472</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="475" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9456,7 +9530,7 @@
         <v>7</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9469,10 +9543,10 @@
         <v>474</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D476" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="477" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9488,7 +9562,7 @@
         <v>8</v>
       </c>
       <c r="D477" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="478" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9501,10 +9575,10 @@
         <v>476</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="479" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9520,7 +9594,7 @@
         <v>6</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="480" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9533,10 +9607,10 @@
         <v>478</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9549,10 +9623,10 @@
         <v>479</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9568,7 +9642,7 @@
         <v>8</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="483" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9581,10 +9655,10 @@
         <v>481</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="484" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9600,7 +9674,7 @@
         <v>9</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9616,7 +9690,7 @@
         <v>10</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="486" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9629,10 +9703,10 @@
         <v>484</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="487" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9645,10 +9719,10 @@
         <v>485</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9664,10 +9738,10 @@
         <v>11</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E488" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9683,7 +9757,7 @@
         <v>6</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="490" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9699,7 +9773,7 @@
         <v>55</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9730,10 +9804,10 @@
         <v>491</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="494" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9748,17 +9822,17 @@
         <v>5</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E494" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F494">
         <f>AADDR</f>
         <v>31</v>
       </c>
       <c r="G494" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H494">
         <f>VALUE1</f>
@@ -9779,10 +9853,10 @@
         <v>493</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -9798,7 +9872,7 @@
         <v>6</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9811,10 +9885,10 @@
         <v>495</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9830,7 +9904,7 @@
         <v>7</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9843,10 +9917,10 @@
         <v>497</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9862,7 +9936,7 @@
         <v>8</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9875,10 +9949,10 @@
         <v>499</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D501" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9894,7 +9968,7 @@
         <v>6</v>
       </c>
       <c r="D502" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9907,10 +9981,10 @@
         <v>501</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9923,10 +9997,10 @@
         <v>502</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9942,7 +10016,7 @@
         <v>8</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9955,10 +10029,10 @@
         <v>504</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9974,7 +10048,7 @@
         <v>9</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -9990,7 +10064,7 @@
         <v>10</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -10003,10 +10077,10 @@
         <v>507</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -10019,10 +10093,10 @@
         <v>508</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -10038,10 +10112,10 @@
         <v>11</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E511" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -10057,7 +10131,7 @@
         <v>5</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="513" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10073,7 +10147,7 @@
         <v>56</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="514" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10104,10 +10178,10 @@
         <v>511</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="517" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10123,17 +10197,17 @@
         <v>5</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E517" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F517">
         <f>AADDR</f>
         <v>31</v>
       </c>
       <c r="G517" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H517">
         <v>0</v>
@@ -10153,10 +10227,10 @@
         <v>514</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="519" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10172,7 +10246,7 @@
         <v>6</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="520" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10185,10 +10259,10 @@
         <v>516</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="521" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10204,7 +10278,7 @@
         <v>7</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="522" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10217,10 +10291,10 @@
         <v>518</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="523" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10236,7 +10310,7 @@
         <v>8</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="524" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10249,10 +10323,10 @@
         <v>520</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="525" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10268,7 +10342,7 @@
         <v>6</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="526" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10281,10 +10355,10 @@
         <v>522</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D526" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="527" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10297,10 +10371,10 @@
         <v>523</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D527" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="528" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10316,7 +10390,7 @@
         <v>8</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="529" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10329,10 +10403,10 @@
         <v>525</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="530" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10348,7 +10422,7 @@
         <v>9</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="531" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10364,7 +10438,7 @@
         <v>10</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="532" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10377,10 +10451,10 @@
         <v>528</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="533" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10393,10 +10467,10 @@
         <v>529</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="534" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10412,10 +10486,10 @@
         <v>34</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E534" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="535" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10431,7 +10505,7 @@
         <v>5</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="536" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10447,7 +10521,7 @@
         <v>57</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="537" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10478,10 +10552,10 @@
         <v>535</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="540" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10497,17 +10571,17 @@
         <v>5</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E540" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F540">
         <f>AADDR</f>
         <v>31</v>
       </c>
       <c r="G540" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H540">
         <v>0</v>
@@ -10527,10 +10601,10 @@
         <v>537</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="542" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10546,7 +10620,7 @@
         <v>6</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="543" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10559,10 +10633,10 @@
         <v>539</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="544" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -10578,7 +10652,7 @@
         <v>7</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10591,10 +10665,10 @@
         <v>541</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10610,7 +10684,7 @@
         <v>8</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10623,10 +10697,10 @@
         <v>543</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10642,7 +10716,7 @@
         <v>6</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10655,10 +10729,10 @@
         <v>545</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10671,10 +10745,10 @@
         <v>546</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10690,7 +10764,7 @@
         <v>8</v>
       </c>
       <c r="D551" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10703,10 +10777,10 @@
         <v>548</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D552" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10722,7 +10796,7 @@
         <v>9</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10738,7 +10812,7 @@
         <v>10</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10751,10 +10825,10 @@
         <v>551</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10767,10 +10841,10 @@
         <v>552</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10786,10 +10860,10 @@
         <v>58</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E557" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10802,10 +10876,10 @@
         <v>554</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10818,16 +10892,16 @@
         <v>555</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E559" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F559" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -10843,7 +10917,7 @@
         <v>5</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -10856,10 +10930,10 @@
         <v>557</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -10875,7 +10949,7 @@
         <v>6</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -10888,10 +10962,10 @@
         <v>559</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="564" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -10907,7 +10981,7 @@
         <v>7</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="565" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -10920,10 +10994,10 @@
         <v>561</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="566" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -10939,7 +11013,7 @@
         <v>8</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -10952,10 +11026,10 @@
         <v>563</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="568" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -10971,7 +11045,7 @@
         <v>6</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="569" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -10984,10 +11058,10 @@
         <v>565</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="570" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -11000,10 +11074,10 @@
         <v>566</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="571" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -11019,7 +11093,7 @@
         <v>8</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="572" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -11032,10 +11106,10 @@
         <v>568</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -11051,7 +11125,7 @@
         <v>9</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -11067,7 +11141,7 @@
         <v>10</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -11080,10 +11154,10 @@
         <v>571</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -11096,10 +11170,10 @@
         <v>572</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11115,10 +11189,10 @@
         <v>58</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E577" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11131,10 +11205,10 @@
         <v>574</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11147,16 +11221,16 @@
         <v>575</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E579" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F579" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11172,7 +11246,7 @@
         <v>5</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11185,10 +11259,10 @@
         <v>577</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11204,7 +11278,7 @@
         <v>6</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11217,10 +11291,10 @@
         <v>579</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11236,7 +11310,7 @@
         <v>7</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11249,10 +11323,10 @@
         <v>581</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11268,7 +11342,7 @@
         <v>8</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11281,10 +11355,10 @@
         <v>583</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11300,7 +11374,7 @@
         <v>6</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11313,10 +11387,10 @@
         <v>585</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11329,10 +11403,10 @@
         <v>586</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11348,7 +11422,7 @@
         <v>8</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="592" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -11361,10 +11435,10 @@
         <v>588</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11380,7 +11454,7 @@
         <v>9</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="594" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11396,7 +11470,7 @@
         <v>10</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11409,10 +11483,10 @@
         <v>591</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11425,10 +11499,10 @@
         <v>592</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11441,13 +11515,13 @@
         <v>593</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E597" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11460,10 +11534,10 @@
         <v>594</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="599" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11476,10 +11550,10 @@
         <v>595</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="600" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11495,7 +11569,7 @@
         <v>42</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="601" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11508,10 +11582,10 @@
         <v>597</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="602" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11524,10 +11598,10 @@
         <v>598</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11540,10 +11614,10 @@
         <v>599</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11556,10 +11630,10 @@
         <v>600</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="605" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11572,10 +11646,10 @@
         <v>601</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11588,10 +11662,10 @@
         <v>602</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11600,10 +11674,10 @@
         <v>603</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="608" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -11616,10 +11690,10 @@
         <v>604</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11650,20 +11724,20 @@
         <v>607</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E611" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F611">
         <f>AADDR</f>
         <v>31</v>
       </c>
       <c r="G611" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H611">
         <v>1</v>
@@ -11686,7 +11760,7 @@
         <v>5</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="613" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11699,10 +11773,10 @@
         <v>609</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="614" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11718,7 +11792,7 @@
         <v>6</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="615" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11731,10 +11805,10 @@
         <v>611</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="616" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11750,7 +11824,7 @@
         <v>7</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="617" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11763,10 +11837,10 @@
         <v>613</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="618" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11782,7 +11856,7 @@
         <v>8</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="619" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11795,10 +11869,10 @@
         <v>615</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="620" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11814,7 +11888,7 @@
         <v>6</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="621" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11827,10 +11901,10 @@
         <v>617</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="622" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11843,10 +11917,10 @@
         <v>618</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="623" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11862,7 +11936,7 @@
         <v>8</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="624" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -11875,10 +11949,10 @@
         <v>620</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="625" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -11894,7 +11968,7 @@
         <v>9</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="626" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -11910,7 +11984,7 @@
         <v>10</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="627" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -11923,10 +11997,10 @@
         <v>623</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="628" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -11939,10 +12013,10 @@
         <v>624</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="629" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -11958,10 +12032,10 @@
         <v>58</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E629" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="630" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -11977,7 +12051,7 @@
         <v>45</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="631" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -11990,10 +12064,10 @@
         <v>627</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="632" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -12006,10 +12080,10 @@
         <v>628</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="633" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -12025,17 +12099,17 @@
         <v>5</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E633" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F633">
         <f>IADDR</f>
         <v>4</v>
       </c>
       <c r="G633" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="634" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -12048,10 +12122,10 @@
         <v>630</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="635" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -12067,7 +12141,7 @@
         <v>6</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="636" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -12080,10 +12154,10 @@
         <v>632</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="637" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -12099,7 +12173,7 @@
         <v>7</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="638" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -12112,10 +12186,10 @@
         <v>634</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="639" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -12131,7 +12205,7 @@
         <v>8</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="640" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -12144,10 +12218,10 @@
         <v>636</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="641" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -12163,7 +12237,7 @@
         <v>6</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="642" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -12176,10 +12250,10 @@
         <v>638</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="643" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -12192,10 +12266,10 @@
         <v>639</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="644" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -12211,7 +12285,7 @@
         <v>8</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="645" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -12224,10 +12298,10 @@
         <v>641</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -12243,7 +12317,7 @@
         <v>9</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -12259,7 +12333,7 @@
         <v>10</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="648" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -12272,10 +12346,10 @@
         <v>644</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="649" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -12288,10 +12362,10 @@
         <v>645</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="650" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -12304,19 +12378,27 @@
         <v>646</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="651" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="C651" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D651" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/prog/asm_bench_global.xlsx
+++ b/prog/asm_bench_global.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gael\Documents\Phelma\Miniprojet_RISC_V\prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B4F2E-467D-4521-B764-9C25278E2373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F288E0F-2606-4BD1-A8A8-5704473EDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{2CCC6636-DFC2-44F3-972F-BAEB4E90E7D9}"/>
+    <workbookView xWindow="5895" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{2CCC6636-DFC2-44F3-972F-BAEB4E90E7D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="256">
   <si>
     <t>Clock</t>
   </si>
@@ -810,6 +810,9 @@
   </si>
   <si>
     <t>addi    a5,a5,1807</t>
+  </si>
+  <si>
+    <t>'01110000111101111000011110010011</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1179,7 @@
   <dimension ref="A1:M651"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
@@ -1708,7 +1711,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>254</v>
